--- a/R/2017_10_06_Completed_LN2_Deep (0m to 120m)_newcleaned.xlsx
+++ b/R/2017_10_06_Completed_LN2_Deep (0m to 120m)_newcleaned.xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yeozy\Documents\Yale-NUS\Y3S1\UROPS\Data\R\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yeozy\Documents\Yale-NUS\Y3S1\UROPS\UROPS\R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D17550A7-51E2-4945-AFE4-89DEF103A28D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D0B91DEB-91A3-4FE3-9556-BE08666D54CB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="55" yWindow="454" windowWidth="17823" windowHeight="15220" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,6 +17,9 @@
     <sheet name="Categories" sheetId="2" r:id="rId2"/>
     <sheet name="LN2" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'LN2'!$A$1:$T$382</definedName>
+  </definedNames>
   <calcPr calcId="179017" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -30,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3062" uniqueCount="1022">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3063" uniqueCount="1023">
   <si>
     <t>SURVEY_ID</t>
   </si>
@@ -3118,6 +3121,9 @@
   </si>
   <si>
     <t>Dipsastraea favus</t>
+  </si>
+  <si>
+    <t>Dipsastraea speciosa</t>
   </si>
 </sst>
 </file>
@@ -9020,10 +9026,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:T382"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A344" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M366" sqref="M366"/>
+    <sheetView tabSelected="1" topLeftCell="A320" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M369" sqref="M369"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="16.100000000000001"/>
@@ -9031,7 +9038,7 @@
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="4" max="4" width="12.7265625" customWidth="1"/>
-    <col min="8" max="8" width="10.81640625" style="23"/>
+    <col min="8" max="8" width="11.08984375" style="23" customWidth="1"/>
     <col min="11" max="11" width="21.453125" customWidth="1"/>
     <col min="12" max="12" width="21.7265625" style="62" customWidth="1"/>
     <col min="13" max="13" width="23.6328125" bestFit="1" customWidth="1"/>
@@ -9100,7 +9107,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" hidden="1">
       <c r="A2" s="21" t="s">
         <v>926</v>
       </c>
@@ -9171,7 +9178,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" hidden="1">
       <c r="A4" s="21" t="s">
         <v>926</v>
       </c>
@@ -9242,7 +9249,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" hidden="1">
       <c r="A6" s="21" t="s">
         <v>926</v>
       </c>
@@ -9313,7 +9320,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" hidden="1">
       <c r="A8" s="21" t="s">
         <v>926</v>
       </c>
@@ -9344,7 +9351,7 @@
       <c r="K8" s="25"/>
       <c r="L8" s="20"/>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" hidden="1">
       <c r="A9" s="21" t="s">
         <v>926</v>
       </c>
@@ -9415,7 +9422,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" hidden="1">
       <c r="A11" s="21" t="s">
         <v>926</v>
       </c>
@@ -9446,7 +9453,7 @@
       <c r="K11" s="25"/>
       <c r="L11" s="20"/>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" hidden="1">
       <c r="A12" s="21" t="s">
         <v>926</v>
       </c>
@@ -9517,7 +9524,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" hidden="1">
       <c r="A14" s="21" t="s">
         <v>926</v>
       </c>
@@ -9548,7 +9555,7 @@
       <c r="K14" s="25"/>
       <c r="L14" s="20"/>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" hidden="1">
       <c r="A15" s="21" t="s">
         <v>926</v>
       </c>
@@ -9579,7 +9586,7 @@
       <c r="K15" s="25"/>
       <c r="L15" s="20"/>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" hidden="1">
       <c r="A16" s="21" t="s">
         <v>926</v>
       </c>
@@ -9650,7 +9657,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" hidden="1">
       <c r="A18" s="21" t="s">
         <v>926</v>
       </c>
@@ -9681,7 +9688,7 @@
       <c r="K18" s="25"/>
       <c r="L18" s="20"/>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:18" hidden="1">
       <c r="A19" s="21" t="s">
         <v>926</v>
       </c>
@@ -9712,7 +9719,7 @@
       <c r="K19" s="25"/>
       <c r="L19" s="20"/>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:18" hidden="1">
       <c r="A20" s="21" t="s">
         <v>926</v>
       </c>
@@ -9743,7 +9750,7 @@
       <c r="K20" s="25"/>
       <c r="L20" s="20"/>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:18" hidden="1">
       <c r="A21" s="21" t="s">
         <v>926</v>
       </c>
@@ -9774,7 +9781,7 @@
       <c r="K21" s="25"/>
       <c r="L21" s="20"/>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:18" hidden="1">
       <c r="A22" s="21" t="s">
         <v>926</v>
       </c>
@@ -9845,7 +9852,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:18" hidden="1">
       <c r="A24" s="21" t="s">
         <v>926</v>
       </c>
@@ -9876,7 +9883,7 @@
       <c r="K24" s="25"/>
       <c r="L24" s="20"/>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:18" hidden="1">
       <c r="A25" s="21" t="s">
         <v>926</v>
       </c>
@@ -9947,7 +9954,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:18" hidden="1">
       <c r="A27" s="21" t="s">
         <v>926</v>
       </c>
@@ -10018,7 +10025,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:18" hidden="1">
       <c r="A29" s="21" t="s">
         <v>926</v>
       </c>
@@ -10049,7 +10056,7 @@
       <c r="K29" s="25"/>
       <c r="L29" s="20"/>
     </row>
-    <row r="30" spans="1:18">
+    <row r="30" spans="1:18" hidden="1">
       <c r="A30" s="21" t="s">
         <v>926</v>
       </c>
@@ -10075,7 +10082,7 @@
       <c r="K30" s="25"/>
       <c r="L30" s="20"/>
     </row>
-    <row r="31" spans="1:18" s="49" customFormat="1">
+    <row r="31" spans="1:18" s="49" customFormat="1" hidden="1">
       <c r="A31" s="48">
         <v>43014</v>
       </c>
@@ -10106,7 +10113,7 @@
       <c r="N31" s="52"/>
       <c r="R31" s="53"/>
     </row>
-    <row r="32" spans="1:18" s="49" customFormat="1">
+    <row r="32" spans="1:18" s="49" customFormat="1" hidden="1">
       <c r="A32" s="48">
         <v>43014</v>
       </c>
@@ -10137,7 +10144,7 @@
       <c r="N32" s="52"/>
       <c r="R32" s="53"/>
     </row>
-    <row r="33" spans="1:18" s="49" customFormat="1">
+    <row r="33" spans="1:18" s="49" customFormat="1" hidden="1">
       <c r="A33" s="48">
         <v>43014</v>
       </c>
@@ -10168,7 +10175,7 @@
       <c r="N33" s="52"/>
       <c r="R33" s="53"/>
     </row>
-    <row r="34" spans="1:18" s="49" customFormat="1">
+    <row r="34" spans="1:18" s="49" customFormat="1" hidden="1">
       <c r="A34" s="48">
         <v>43014</v>
       </c>
@@ -10199,7 +10206,7 @@
       <c r="N34" s="52"/>
       <c r="R34" s="53"/>
     </row>
-    <row r="35" spans="1:18" s="49" customFormat="1">
+    <row r="35" spans="1:18" s="49" customFormat="1" hidden="1">
       <c r="A35" s="48">
         <v>43014</v>
       </c>
@@ -10230,7 +10237,7 @@
       <c r="N35" s="52"/>
       <c r="R35" s="53"/>
     </row>
-    <row r="36" spans="1:18" s="49" customFormat="1">
+    <row r="36" spans="1:18" s="49" customFormat="1" hidden="1">
       <c r="A36" s="48">
         <v>43014</v>
       </c>
@@ -10261,7 +10268,7 @@
       <c r="N36" s="52"/>
       <c r="R36" s="53"/>
     </row>
-    <row r="37" spans="1:18" s="49" customFormat="1">
+    <row r="37" spans="1:18" s="49" customFormat="1" hidden="1">
       <c r="A37" s="48">
         <v>43014</v>
       </c>
@@ -10292,7 +10299,7 @@
       <c r="N37" s="52"/>
       <c r="R37" s="53"/>
     </row>
-    <row r="38" spans="1:18" s="49" customFormat="1">
+    <row r="38" spans="1:18" s="49" customFormat="1" hidden="1">
       <c r="A38" s="48">
         <v>43014</v>
       </c>
@@ -10323,7 +10330,7 @@
       <c r="N38" s="52"/>
       <c r="R38" s="53"/>
     </row>
-    <row r="39" spans="1:18" s="49" customFormat="1">
+    <row r="39" spans="1:18" s="49" customFormat="1" hidden="1">
       <c r="A39" s="48">
         <v>43014</v>
       </c>
@@ -10395,7 +10402,7 @@
       <c r="N40" s="52"/>
       <c r="R40" s="53"/>
     </row>
-    <row r="41" spans="1:18" s="49" customFormat="1">
+    <row r="41" spans="1:18" s="49" customFormat="1" hidden="1">
       <c r="A41" s="48">
         <v>43014</v>
       </c>
@@ -10426,7 +10433,7 @@
       <c r="N41" s="52"/>
       <c r="R41" s="53"/>
     </row>
-    <row r="42" spans="1:18" s="49" customFormat="1">
+    <row r="42" spans="1:18" s="49" customFormat="1" hidden="1">
       <c r="A42" s="48">
         <v>43014</v>
       </c>
@@ -10457,7 +10464,7 @@
       <c r="N42" s="52"/>
       <c r="R42" s="53"/>
     </row>
-    <row r="43" spans="1:18" s="49" customFormat="1">
+    <row r="43" spans="1:18" s="49" customFormat="1" hidden="1">
       <c r="A43" s="48">
         <v>43014</v>
       </c>
@@ -10529,7 +10536,7 @@
       <c r="N44" s="52"/>
       <c r="R44" s="53"/>
     </row>
-    <row r="45" spans="1:18" s="49" customFormat="1">
+    <row r="45" spans="1:18" s="49" customFormat="1" hidden="1">
       <c r="A45" s="48">
         <v>43014</v>
       </c>
@@ -10560,7 +10567,7 @@
       <c r="N45" s="52"/>
       <c r="R45" s="53"/>
     </row>
-    <row r="46" spans="1:18" s="49" customFormat="1">
+    <row r="46" spans="1:18" s="49" customFormat="1" hidden="1">
       <c r="A46" s="48">
         <v>43014</v>
       </c>
@@ -10591,7 +10598,7 @@
       <c r="N46" s="52"/>
       <c r="R46" s="53"/>
     </row>
-    <row r="47" spans="1:18" s="49" customFormat="1">
+    <row r="47" spans="1:18" s="49" customFormat="1" hidden="1">
       <c r="A47" s="48">
         <v>43014</v>
       </c>
@@ -10663,7 +10670,7 @@
       <c r="N48" s="52"/>
       <c r="R48" s="53"/>
     </row>
-    <row r="49" spans="1:18" s="49" customFormat="1">
+    <row r="49" spans="1:18" s="49" customFormat="1" hidden="1">
       <c r="A49" s="48">
         <v>43014</v>
       </c>
@@ -10735,7 +10742,7 @@
       <c r="N50" s="52"/>
       <c r="R50" s="53"/>
     </row>
-    <row r="51" spans="1:18" s="49" customFormat="1">
+    <row r="51" spans="1:18" s="49" customFormat="1" hidden="1">
       <c r="A51" s="48">
         <v>43014</v>
       </c>
@@ -10766,7 +10773,7 @@
       <c r="N51" s="52"/>
       <c r="R51" s="53"/>
     </row>
-    <row r="52" spans="1:18" s="49" customFormat="1">
+    <row r="52" spans="1:18" s="49" customFormat="1" hidden="1">
       <c r="A52" s="48">
         <v>43014</v>
       </c>
@@ -10797,7 +10804,7 @@
       <c r="N52" s="52"/>
       <c r="R52" s="53"/>
     </row>
-    <row r="53" spans="1:18" s="49" customFormat="1">
+    <row r="53" spans="1:18" s="49" customFormat="1" hidden="1">
       <c r="A53" s="48">
         <v>43014</v>
       </c>
@@ -10828,7 +10835,7 @@
       <c r="N53" s="52"/>
       <c r="R53" s="53"/>
     </row>
-    <row r="54" spans="1:18" s="49" customFormat="1">
+    <row r="54" spans="1:18" s="49" customFormat="1" hidden="1">
       <c r="A54" s="48">
         <v>43014</v>
       </c>
@@ -10859,7 +10866,7 @@
       <c r="N54" s="52"/>
       <c r="R54" s="53"/>
     </row>
-    <row r="55" spans="1:18" s="49" customFormat="1">
+    <row r="55" spans="1:18" s="49" customFormat="1" hidden="1">
       <c r="A55" s="48">
         <v>43014</v>
       </c>
@@ -10893,7 +10900,7 @@
       <c r="N55" s="52"/>
       <c r="R55" s="53"/>
     </row>
-    <row r="56" spans="1:18" s="49" customFormat="1">
+    <row r="56" spans="1:18" s="49" customFormat="1" hidden="1">
       <c r="A56" s="48">
         <v>43014</v>
       </c>
@@ -10924,7 +10931,7 @@
       <c r="N56" s="52"/>
       <c r="R56" s="53"/>
     </row>
-    <row r="57" spans="1:18" s="49" customFormat="1">
+    <row r="57" spans="1:18" s="49" customFormat="1" hidden="1">
       <c r="A57" s="48">
         <v>43014</v>
       </c>
@@ -10955,7 +10962,7 @@
       <c r="N57" s="52"/>
       <c r="R57" s="53"/>
     </row>
-    <row r="58" spans="1:18" s="49" customFormat="1">
+    <row r="58" spans="1:18" s="49" customFormat="1" hidden="1">
       <c r="A58" s="48">
         <v>43014</v>
       </c>
@@ -10986,7 +10993,7 @@
       <c r="N58" s="52"/>
       <c r="R58" s="53"/>
     </row>
-    <row r="59" spans="1:18" s="49" customFormat="1">
+    <row r="59" spans="1:18" s="49" customFormat="1" hidden="1">
       <c r="A59" s="48">
         <v>43014</v>
       </c>
@@ -11058,7 +11065,7 @@
       <c r="N60" s="52"/>
       <c r="R60" s="53"/>
     </row>
-    <row r="61" spans="1:18" s="49" customFormat="1">
+    <row r="61" spans="1:18" s="49" customFormat="1" hidden="1">
       <c r="A61" s="48">
         <v>43014</v>
       </c>
@@ -11089,7 +11096,7 @@
       <c r="N61" s="52"/>
       <c r="R61" s="53"/>
     </row>
-    <row r="62" spans="1:18" s="49" customFormat="1">
+    <row r="62" spans="1:18" s="49" customFormat="1" hidden="1">
       <c r="A62" s="48">
         <v>43014</v>
       </c>
@@ -11120,7 +11127,7 @@
       <c r="N62" s="52"/>
       <c r="R62" s="53"/>
     </row>
-    <row r="63" spans="1:18" s="49" customFormat="1">
+    <row r="63" spans="1:18" s="49" customFormat="1" hidden="1">
       <c r="A63" s="48">
         <v>43014</v>
       </c>
@@ -11151,7 +11158,7 @@
       <c r="N63" s="52"/>
       <c r="R63" s="53"/>
     </row>
-    <row r="64" spans="1:18" s="49" customFormat="1">
+    <row r="64" spans="1:18" s="49" customFormat="1" hidden="1">
       <c r="A64" s="48">
         <v>43014</v>
       </c>
@@ -11182,7 +11189,7 @@
       <c r="N64" s="52"/>
       <c r="R64" s="53"/>
     </row>
-    <row r="65" spans="1:19" s="49" customFormat="1">
+    <row r="65" spans="1:19" s="49" customFormat="1" hidden="1">
       <c r="A65" s="48">
         <v>43014</v>
       </c>
@@ -11213,7 +11220,7 @@
       <c r="N65" s="52"/>
       <c r="R65" s="53"/>
     </row>
-    <row r="66" spans="1:19" s="49" customFormat="1">
+    <row r="66" spans="1:19" s="49" customFormat="1" hidden="1">
       <c r="A66" s="48">
         <v>43014</v>
       </c>
@@ -11244,7 +11251,7 @@
       <c r="N66" s="52"/>
       <c r="R66" s="53"/>
     </row>
-    <row r="67" spans="1:19" s="49" customFormat="1">
+    <row r="67" spans="1:19" s="49" customFormat="1" hidden="1">
       <c r="A67" s="48">
         <v>43014</v>
       </c>
@@ -11316,7 +11323,7 @@
       <c r="N68" s="52"/>
       <c r="R68" s="53"/>
     </row>
-    <row r="69" spans="1:19" s="49" customFormat="1">
+    <row r="69" spans="1:19" s="49" customFormat="1" hidden="1">
       <c r="A69" s="48">
         <v>43014</v>
       </c>
@@ -11347,7 +11354,7 @@
       <c r="N69" s="52"/>
       <c r="R69" s="53"/>
     </row>
-    <row r="70" spans="1:19" s="49" customFormat="1">
+    <row r="70" spans="1:19" s="49" customFormat="1" hidden="1">
       <c r="A70" s="48">
         <v>43014</v>
       </c>
@@ -11378,7 +11385,7 @@
       <c r="N70" s="52"/>
       <c r="R70" s="53"/>
     </row>
-    <row r="71" spans="1:19" s="49" customFormat="1">
+    <row r="71" spans="1:19" s="49" customFormat="1" hidden="1">
       <c r="A71" s="48">
         <v>43014</v>
       </c>
@@ -11409,7 +11416,7 @@
       <c r="N71" s="52"/>
       <c r="R71" s="53"/>
     </row>
-    <row r="72" spans="1:19" s="49" customFormat="1">
+    <row r="72" spans="1:19" s="49" customFormat="1" hidden="1">
       <c r="A72" s="48">
         <v>43014</v>
       </c>
@@ -11440,7 +11447,7 @@
       <c r="N72" s="52"/>
       <c r="R72" s="53"/>
     </row>
-    <row r="73" spans="1:19" s="49" customFormat="1">
+    <row r="73" spans="1:19" s="49" customFormat="1" hidden="1">
       <c r="A73" s="48">
         <v>43014</v>
       </c>
@@ -11471,7 +11478,7 @@
       <c r="N73" s="52"/>
       <c r="R73" s="53"/>
     </row>
-    <row r="74" spans="1:19" s="49" customFormat="1">
+    <row r="74" spans="1:19" s="49" customFormat="1" hidden="1">
       <c r="A74" s="48">
         <v>43014</v>
       </c>
@@ -11502,7 +11509,7 @@
       <c r="N74" s="52"/>
       <c r="R74" s="53"/>
     </row>
-    <row r="75" spans="1:19" s="49" customFormat="1">
+    <row r="75" spans="1:19" s="49" customFormat="1" hidden="1">
       <c r="A75" s="48">
         <v>43014</v>
       </c>
@@ -11533,7 +11540,7 @@
       <c r="N75" s="52"/>
       <c r="R75" s="53"/>
     </row>
-    <row r="76" spans="1:19" s="49" customFormat="1">
+    <row r="76" spans="1:19" s="49" customFormat="1" hidden="1">
       <c r="A76" s="48">
         <v>43014</v>
       </c>
@@ -11564,7 +11571,7 @@
       <c r="N76" s="52"/>
       <c r="R76" s="53"/>
     </row>
-    <row r="77" spans="1:19" s="49" customFormat="1">
+    <row r="77" spans="1:19" s="49" customFormat="1" hidden="1">
       <c r="A77" s="48">
         <v>43014</v>
       </c>
@@ -11595,7 +11602,7 @@
       <c r="N77" s="52"/>
       <c r="R77" s="53"/>
     </row>
-    <row r="78" spans="1:19" s="49" customFormat="1">
+    <row r="78" spans="1:19" s="49" customFormat="1" hidden="1">
       <c r="A78" s="48">
         <v>43014</v>
       </c>
@@ -11626,7 +11633,7 @@
       <c r="N78" s="52"/>
       <c r="R78" s="53"/>
     </row>
-    <row r="79" spans="1:19" s="54" customFormat="1">
+    <row r="79" spans="1:19" s="54" customFormat="1" hidden="1">
       <c r="A79" s="48">
         <v>43014</v>
       </c>
@@ -11699,7 +11706,7 @@
       <c r="N80" s="52"/>
       <c r="R80" s="53"/>
     </row>
-    <row r="81" spans="1:18" s="49" customFormat="1">
+    <row r="81" spans="1:18" s="49" customFormat="1" hidden="1">
       <c r="A81" s="48">
         <v>43014</v>
       </c>
@@ -11730,7 +11737,7 @@
       <c r="N81" s="52"/>
       <c r="R81" s="53"/>
     </row>
-    <row r="82" spans="1:18" s="49" customFormat="1">
+    <row r="82" spans="1:18" s="49" customFormat="1" hidden="1">
       <c r="A82" s="48">
         <v>43014</v>
       </c>
@@ -11761,7 +11768,7 @@
       <c r="N82" s="52"/>
       <c r="R82" s="53"/>
     </row>
-    <row r="83" spans="1:18" s="49" customFormat="1">
+    <row r="83" spans="1:18" s="49" customFormat="1" hidden="1">
       <c r="A83" s="48">
         <v>43014</v>
       </c>
@@ -11792,7 +11799,7 @@
       <c r="N83" s="52"/>
       <c r="R83" s="53"/>
     </row>
-    <row r="84" spans="1:18" s="49" customFormat="1">
+    <row r="84" spans="1:18" s="49" customFormat="1" hidden="1">
       <c r="A84" s="48">
         <v>43014</v>
       </c>
@@ -11823,7 +11830,7 @@
       <c r="N84" s="52"/>
       <c r="R84" s="53"/>
     </row>
-    <row r="85" spans="1:18" s="49" customFormat="1">
+    <row r="85" spans="1:18" s="49" customFormat="1" hidden="1">
       <c r="A85" s="48">
         <v>43014</v>
       </c>
@@ -11854,7 +11861,7 @@
       <c r="N85" s="52"/>
       <c r="R85" s="53"/>
     </row>
-    <row r="86" spans="1:18" s="49" customFormat="1">
+    <row r="86" spans="1:18" s="49" customFormat="1" hidden="1">
       <c r="A86" s="48">
         <v>43014</v>
       </c>
@@ -11885,7 +11892,7 @@
       <c r="N86" s="52"/>
       <c r="R86" s="53"/>
     </row>
-    <row r="87" spans="1:18" s="49" customFormat="1">
+    <row r="87" spans="1:18" s="49" customFormat="1" hidden="1">
       <c r="A87" s="48">
         <v>43014</v>
       </c>
@@ -11916,7 +11923,7 @@
       <c r="N87" s="52"/>
       <c r="R87" s="53"/>
     </row>
-    <row r="88" spans="1:18" s="49" customFormat="1">
+    <row r="88" spans="1:18" s="49" customFormat="1" hidden="1">
       <c r="A88" s="48">
         <v>43014</v>
       </c>
@@ -11947,7 +11954,7 @@
       <c r="N88" s="52"/>
       <c r="R88" s="53"/>
     </row>
-    <row r="89" spans="1:18" s="49" customFormat="1">
+    <row r="89" spans="1:18" s="49" customFormat="1" hidden="1">
       <c r="A89" s="48">
         <v>43014</v>
       </c>
@@ -12019,7 +12026,7 @@
       <c r="N90" s="52"/>
       <c r="R90" s="53"/>
     </row>
-    <row r="91" spans="1:18" s="49" customFormat="1">
+    <row r="91" spans="1:18" s="49" customFormat="1" hidden="1">
       <c r="A91" s="48">
         <v>43014</v>
       </c>
@@ -12091,7 +12098,7 @@
       <c r="N92" s="52"/>
       <c r="R92" s="53"/>
     </row>
-    <row r="93" spans="1:18" s="49" customFormat="1">
+    <row r="93" spans="1:18" s="49" customFormat="1" hidden="1">
       <c r="A93" s="48">
         <v>43014</v>
       </c>
@@ -12122,7 +12129,7 @@
       <c r="N93" s="52"/>
       <c r="R93" s="53"/>
     </row>
-    <row r="94" spans="1:18" s="49" customFormat="1">
+    <row r="94" spans="1:18" s="49" customFormat="1" hidden="1">
       <c r="A94" s="48">
         <v>43014</v>
       </c>
@@ -12153,7 +12160,7 @@
       <c r="N94" s="52"/>
       <c r="R94" s="53"/>
     </row>
-    <row r="95" spans="1:18" s="49" customFormat="1">
+    <row r="95" spans="1:18" s="49" customFormat="1" hidden="1">
       <c r="A95" s="48">
         <v>43014</v>
       </c>
@@ -12184,7 +12191,7 @@
       <c r="N95" s="52"/>
       <c r="R95" s="53"/>
     </row>
-    <row r="96" spans="1:18" s="49" customFormat="1">
+    <row r="96" spans="1:18" s="49" customFormat="1" hidden="1">
       <c r="A96" s="48">
         <v>43014</v>
       </c>
@@ -12215,7 +12222,7 @@
       <c r="N96" s="52"/>
       <c r="R96" s="53"/>
     </row>
-    <row r="97" spans="1:18" s="49" customFormat="1">
+    <row r="97" spans="1:18" s="49" customFormat="1" hidden="1">
       <c r="A97" s="48">
         <v>43014</v>
       </c>
@@ -12246,7 +12253,7 @@
       <c r="N97" s="52"/>
       <c r="R97" s="53"/>
     </row>
-    <row r="98" spans="1:18" s="49" customFormat="1">
+    <row r="98" spans="1:18" s="49" customFormat="1" hidden="1">
       <c r="A98" s="48">
         <v>43014</v>
       </c>
@@ -12318,7 +12325,7 @@
       <c r="N99" s="52"/>
       <c r="R99" s="53"/>
     </row>
-    <row r="100" spans="1:18" s="49" customFormat="1">
+    <row r="100" spans="1:18" s="49" customFormat="1" hidden="1">
       <c r="A100" s="48">
         <v>43014</v>
       </c>
@@ -12349,7 +12356,7 @@
       <c r="N100" s="52"/>
       <c r="R100" s="53"/>
     </row>
-    <row r="101" spans="1:18" s="49" customFormat="1">
+    <row r="101" spans="1:18" s="49" customFormat="1" hidden="1">
       <c r="A101" s="48">
         <v>43014</v>
       </c>
@@ -12380,7 +12387,7 @@
       <c r="N101" s="52"/>
       <c r="R101" s="53"/>
     </row>
-    <row r="102" spans="1:18" s="49" customFormat="1">
+    <row r="102" spans="1:18" s="49" customFormat="1" hidden="1">
       <c r="A102" s="48">
         <v>43014</v>
       </c>
@@ -12411,7 +12418,7 @@
       <c r="N102" s="52"/>
       <c r="R102" s="53"/>
     </row>
-    <row r="103" spans="1:18">
+    <row r="103" spans="1:18" hidden="1">
       <c r="A103" s="21" t="s">
         <v>926</v>
       </c>
@@ -12437,7 +12444,7 @@
       <c r="K103" s="36"/>
       <c r="L103" s="35"/>
     </row>
-    <row r="104" spans="1:18">
+    <row r="104" spans="1:18" hidden="1">
       <c r="A104" s="21" t="s">
         <v>926</v>
       </c>
@@ -12508,7 +12515,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="106" spans="1:18">
+    <row r="106" spans="1:18" hidden="1">
       <c r="A106" s="21" t="s">
         <v>926</v>
       </c>
@@ -12580,7 +12587,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="108" spans="1:18">
+    <row r="108" spans="1:18" hidden="1">
       <c r="A108" s="21" t="s">
         <v>926</v>
       </c>
@@ -12611,7 +12618,7 @@
       <c r="K108" s="38"/>
       <c r="L108" s="38"/>
     </row>
-    <row r="109" spans="1:18">
+    <row r="109" spans="1:18" hidden="1">
       <c r="A109" s="21" t="s">
         <v>926</v>
       </c>
@@ -12642,7 +12649,7 @@
       <c r="K109" s="38"/>
       <c r="L109" s="38"/>
     </row>
-    <row r="110" spans="1:18">
+    <row r="110" spans="1:18" hidden="1">
       <c r="A110" s="21" t="s">
         <v>926</v>
       </c>
@@ -12673,7 +12680,7 @@
       <c r="K110" s="38"/>
       <c r="L110" s="38"/>
     </row>
-    <row r="111" spans="1:18">
+    <row r="111" spans="1:18" hidden="1">
       <c r="A111" s="21" t="s">
         <v>926</v>
       </c>
@@ -12704,7 +12711,7 @@
       <c r="K111" s="38"/>
       <c r="L111" s="38"/>
     </row>
-    <row r="112" spans="1:18">
+    <row r="112" spans="1:18" hidden="1">
       <c r="A112" s="21" t="s">
         <v>926</v>
       </c>
@@ -12735,7 +12742,7 @@
       <c r="K112" s="38"/>
       <c r="L112" s="38"/>
     </row>
-    <row r="113" spans="1:12">
+    <row r="113" spans="1:12" hidden="1">
       <c r="A113" s="21" t="s">
         <v>926</v>
       </c>
@@ -12766,7 +12773,7 @@
       <c r="K113" s="38"/>
       <c r="L113" s="38"/>
     </row>
-    <row r="114" spans="1:12">
+    <row r="114" spans="1:12" hidden="1">
       <c r="A114" s="21" t="s">
         <v>926</v>
       </c>
@@ -12797,7 +12804,7 @@
       <c r="K114" s="38"/>
       <c r="L114" s="38"/>
     </row>
-    <row r="115" spans="1:12">
+    <row r="115" spans="1:12" hidden="1">
       <c r="A115" s="21" t="s">
         <v>926</v>
       </c>
@@ -12829,7 +12836,7 @@
       <c r="J115" s="32"/>
       <c r="L115" s="38"/>
     </row>
-    <row r="116" spans="1:12">
+    <row r="116" spans="1:12" hidden="1">
       <c r="A116" s="21" t="s">
         <v>926</v>
       </c>
@@ -12859,7 +12866,7 @@
       <c r="J116" s="32"/>
       <c r="L116" s="38"/>
     </row>
-    <row r="117" spans="1:12">
+    <row r="117" spans="1:12" hidden="1">
       <c r="A117" s="21" t="s">
         <v>926</v>
       </c>
@@ -12891,7 +12898,7 @@
       <c r="J117" s="32"/>
       <c r="L117" s="38"/>
     </row>
-    <row r="118" spans="1:12">
+    <row r="118" spans="1:12" hidden="1">
       <c r="A118" s="21" t="s">
         <v>926</v>
       </c>
@@ -12923,7 +12930,7 @@
       <c r="J118" s="32"/>
       <c r="L118" s="38"/>
     </row>
-    <row r="119" spans="1:12">
+    <row r="119" spans="1:12" hidden="1">
       <c r="A119" s="21" t="s">
         <v>926</v>
       </c>
@@ -12953,7 +12960,7 @@
       <c r="J119" s="32"/>
       <c r="L119" s="38"/>
     </row>
-    <row r="120" spans="1:12">
+    <row r="120" spans="1:12" hidden="1">
       <c r="A120" s="21" t="s">
         <v>926</v>
       </c>
@@ -12985,7 +12992,7 @@
       <c r="J120" s="32"/>
       <c r="L120" s="38"/>
     </row>
-    <row r="121" spans="1:12">
+    <row r="121" spans="1:12" hidden="1">
       <c r="A121" s="21" t="s">
         <v>926</v>
       </c>
@@ -13017,7 +13024,7 @@
       <c r="J121" s="32"/>
       <c r="L121" s="38"/>
     </row>
-    <row r="122" spans="1:12">
+    <row r="122" spans="1:12" hidden="1">
       <c r="A122" s="21" t="s">
         <v>926</v>
       </c>
@@ -13047,7 +13054,7 @@
       <c r="J122" s="32"/>
       <c r="L122" s="38"/>
     </row>
-    <row r="123" spans="1:12">
+    <row r="123" spans="1:12" hidden="1">
       <c r="A123" s="21" t="s">
         <v>926</v>
       </c>
@@ -13077,7 +13084,7 @@
       <c r="J123" s="32"/>
       <c r="L123" s="38"/>
     </row>
-    <row r="124" spans="1:12">
+    <row r="124" spans="1:12" hidden="1">
       <c r="A124" s="21" t="s">
         <v>926</v>
       </c>
@@ -13107,7 +13114,7 @@
       <c r="J124" s="32"/>
       <c r="L124" s="38"/>
     </row>
-    <row r="125" spans="1:12">
+    <row r="125" spans="1:12" hidden="1">
       <c r="A125" s="21" t="s">
         <v>926</v>
       </c>
@@ -13139,7 +13146,7 @@
       <c r="J125" s="32"/>
       <c r="L125" s="38"/>
     </row>
-    <row r="126" spans="1:12">
+    <row r="126" spans="1:12" hidden="1">
       <c r="A126" s="21" t="s">
         <v>926</v>
       </c>
@@ -13170,7 +13177,7 @@
       <c r="K126" s="38"/>
       <c r="L126" s="38"/>
     </row>
-    <row r="127" spans="1:12">
+    <row r="127" spans="1:12" hidden="1">
       <c r="A127" s="21" t="s">
         <v>926</v>
       </c>
@@ -13201,7 +13208,7 @@
       <c r="K127" s="38"/>
       <c r="L127" s="38"/>
     </row>
-    <row r="128" spans="1:12">
+    <row r="128" spans="1:12" hidden="1">
       <c r="A128" s="21" t="s">
         <v>926</v>
       </c>
@@ -13232,7 +13239,7 @@
       <c r="K128" s="38"/>
       <c r="L128" s="38"/>
     </row>
-    <row r="129" spans="1:13">
+    <row r="129" spans="1:13" hidden="1">
       <c r="A129" s="21" t="s">
         <v>926</v>
       </c>
@@ -13263,7 +13270,7 @@
       <c r="K129" s="38"/>
       <c r="L129" s="38"/>
     </row>
-    <row r="130" spans="1:13">
+    <row r="130" spans="1:13" hidden="1">
       <c r="A130" s="21" t="s">
         <v>926</v>
       </c>
@@ -13294,7 +13301,7 @@
       <c r="K130" s="38"/>
       <c r="L130" s="38"/>
     </row>
-    <row r="131" spans="1:13">
+    <row r="131" spans="1:13" hidden="1">
       <c r="A131" s="21" t="s">
         <v>926</v>
       </c>
@@ -13325,7 +13332,7 @@
       <c r="K131" s="38"/>
       <c r="L131" s="38"/>
     </row>
-    <row r="132" spans="1:13">
+    <row r="132" spans="1:13" hidden="1">
       <c r="A132" s="21" t="s">
         <v>926</v>
       </c>
@@ -13356,7 +13363,7 @@
       <c r="K132" s="38"/>
       <c r="L132" s="38"/>
     </row>
-    <row r="133" spans="1:13">
+    <row r="133" spans="1:13" hidden="1">
       <c r="A133" s="21" t="s">
         <v>926</v>
       </c>
@@ -13429,7 +13436,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="135" spans="1:13">
+    <row r="135" spans="1:13" hidden="1">
       <c r="A135" s="21" t="s">
         <v>926</v>
       </c>
@@ -13461,7 +13468,7 @@
       <c r="J135" s="32"/>
       <c r="L135" s="38"/>
     </row>
-    <row r="136" spans="1:13">
+    <row r="136" spans="1:13" hidden="1">
       <c r="A136" s="21" t="s">
         <v>926</v>
       </c>
@@ -13576,7 +13583,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="139" spans="1:13">
+    <row r="139" spans="1:13" hidden="1">
       <c r="A139" s="21" t="s">
         <v>926</v>
       </c>
@@ -13607,7 +13614,7 @@
       <c r="K139" s="38"/>
       <c r="L139" s="38"/>
     </row>
-    <row r="140" spans="1:13">
+    <row r="140" spans="1:13" hidden="1">
       <c r="A140" s="21" t="s">
         <v>926</v>
       </c>
@@ -13639,7 +13646,7 @@
       <c r="J140" s="32"/>
       <c r="L140" s="38"/>
     </row>
-    <row r="141" spans="1:13">
+    <row r="141" spans="1:13" hidden="1">
       <c r="A141" s="21" t="s">
         <v>926</v>
       </c>
@@ -13669,7 +13676,7 @@
       <c r="J141" s="32"/>
       <c r="L141" s="38"/>
     </row>
-    <row r="142" spans="1:13">
+    <row r="142" spans="1:13" hidden="1">
       <c r="A142" s="21" t="s">
         <v>926</v>
       </c>
@@ -13699,7 +13706,7 @@
       <c r="J142" s="32"/>
       <c r="L142" s="38"/>
     </row>
-    <row r="143" spans="1:13">
+    <row r="143" spans="1:13" hidden="1">
       <c r="A143" s="21" t="s">
         <v>926</v>
       </c>
@@ -13729,7 +13736,7 @@
       <c r="J143" s="32"/>
       <c r="L143" s="38"/>
     </row>
-    <row r="144" spans="1:13">
+    <row r="144" spans="1:13" hidden="1">
       <c r="A144" s="21" t="s">
         <v>926</v>
       </c>
@@ -13761,7 +13768,7 @@
       <c r="J144" s="32"/>
       <c r="L144" s="38"/>
     </row>
-    <row r="145" spans="1:13">
+    <row r="145" spans="1:13" hidden="1">
       <c r="A145" s="21" t="s">
         <v>926</v>
       </c>
@@ -13834,7 +13841,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="147" spans="1:13">
+    <row r="147" spans="1:13" hidden="1">
       <c r="A147" s="21" t="s">
         <v>926</v>
       </c>
@@ -13865,7 +13872,7 @@
       <c r="K147" s="38"/>
       <c r="L147" s="38"/>
     </row>
-    <row r="148" spans="1:13">
+    <row r="148" spans="1:13" hidden="1">
       <c r="A148" s="21" t="s">
         <v>926</v>
       </c>
@@ -13897,7 +13904,7 @@
       <c r="J148" s="32"/>
       <c r="L148" s="38"/>
     </row>
-    <row r="149" spans="1:13">
+    <row r="149" spans="1:13" hidden="1">
       <c r="A149" s="21" t="s">
         <v>926</v>
       </c>
@@ -13928,7 +13935,7 @@
       <c r="K149" s="38"/>
       <c r="L149" s="38"/>
     </row>
-    <row r="150" spans="1:13">
+    <row r="150" spans="1:13" hidden="1">
       <c r="A150" s="21" t="s">
         <v>926</v>
       </c>
@@ -13959,7 +13966,7 @@
       <c r="K150" s="38"/>
       <c r="L150" s="38"/>
     </row>
-    <row r="151" spans="1:13">
+    <row r="151" spans="1:13" hidden="1">
       <c r="A151" s="21" t="s">
         <v>926</v>
       </c>
@@ -13990,7 +13997,7 @@
       <c r="K151" s="38"/>
       <c r="L151" s="38"/>
     </row>
-    <row r="152" spans="1:13">
+    <row r="152" spans="1:13" hidden="1">
       <c r="A152" s="21" t="s">
         <v>926</v>
       </c>
@@ -14021,7 +14028,7 @@
       <c r="K152" s="38"/>
       <c r="L152" s="38"/>
     </row>
-    <row r="153" spans="1:13">
+    <row r="153" spans="1:13" hidden="1">
       <c r="A153" s="21" t="s">
         <v>926</v>
       </c>
@@ -14052,7 +14059,7 @@
       <c r="K153" s="38"/>
       <c r="L153" s="38"/>
     </row>
-    <row r="154" spans="1:13">
+    <row r="154" spans="1:13" hidden="1">
       <c r="A154" s="21" t="s">
         <v>926</v>
       </c>
@@ -14083,7 +14090,7 @@
       <c r="K154" s="38"/>
       <c r="L154" s="38"/>
     </row>
-    <row r="155" spans="1:13">
+    <row r="155" spans="1:13" hidden="1">
       <c r="A155" s="21" t="s">
         <v>926</v>
       </c>
@@ -14156,7 +14163,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="157" spans="1:13">
+    <row r="157" spans="1:13" hidden="1">
       <c r="A157" s="21" t="s">
         <v>926</v>
       </c>
@@ -14187,7 +14194,7 @@
       <c r="K157" s="40"/>
       <c r="L157" s="38"/>
     </row>
-    <row r="158" spans="1:13">
+    <row r="158" spans="1:13" hidden="1">
       <c r="A158" s="21" t="s">
         <v>926</v>
       </c>
@@ -14219,7 +14226,7 @@
       <c r="J158" s="39"/>
       <c r="L158" s="38"/>
     </row>
-    <row r="159" spans="1:13">
+    <row r="159" spans="1:13" hidden="1">
       <c r="A159" s="21" t="s">
         <v>926</v>
       </c>
@@ -14292,7 +14299,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="161" spans="1:13">
+    <row r="161" spans="1:13" hidden="1">
       <c r="A161" s="21" t="s">
         <v>926</v>
       </c>
@@ -14324,7 +14331,7 @@
       <c r="J161" s="39"/>
       <c r="L161" s="38"/>
     </row>
-    <row r="162" spans="1:13">
+    <row r="162" spans="1:13" hidden="1">
       <c r="A162" s="21" t="s">
         <v>926</v>
       </c>
@@ -14355,7 +14362,7 @@
       <c r="K162" s="40"/>
       <c r="L162" s="38"/>
     </row>
-    <row r="163" spans="1:13">
+    <row r="163" spans="1:13" hidden="1">
       <c r="A163" s="21" t="s">
         <v>926</v>
       </c>
@@ -14429,7 +14436,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="165" spans="1:13">
+    <row r="165" spans="1:13" hidden="1">
       <c r="A165" s="21" t="s">
         <v>926</v>
       </c>
@@ -14460,7 +14467,7 @@
       <c r="K165" s="40"/>
       <c r="L165" s="38"/>
     </row>
-    <row r="166" spans="1:13">
+    <row r="166" spans="1:13" hidden="1">
       <c r="A166" s="21" t="s">
         <v>926</v>
       </c>
@@ -14533,7 +14540,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="168" spans="1:13">
+    <row r="168" spans="1:13" hidden="1">
       <c r="A168" s="21" t="s">
         <v>926</v>
       </c>
@@ -14565,7 +14572,7 @@
       <c r="J168" s="39"/>
       <c r="L168" s="38"/>
     </row>
-    <row r="169" spans="1:13">
+    <row r="169" spans="1:13" hidden="1">
       <c r="A169" s="21" t="s">
         <v>926</v>
       </c>
@@ -14596,7 +14603,7 @@
       <c r="K169" s="40"/>
       <c r="L169" s="38"/>
     </row>
-    <row r="170" spans="1:13">
+    <row r="170" spans="1:13" hidden="1">
       <c r="A170" s="21" t="s">
         <v>926</v>
       </c>
@@ -14627,7 +14634,7 @@
       <c r="K170" s="40"/>
       <c r="L170" s="38"/>
     </row>
-    <row r="171" spans="1:13">
+    <row r="171" spans="1:13" hidden="1">
       <c r="A171" s="21" t="s">
         <v>926</v>
       </c>
@@ -14658,7 +14665,7 @@
       <c r="K171" s="40"/>
       <c r="L171" s="38"/>
     </row>
-    <row r="172" spans="1:13">
+    <row r="172" spans="1:13" hidden="1">
       <c r="A172" s="21" t="s">
         <v>926</v>
       </c>
@@ -14689,7 +14696,7 @@
       <c r="K172" s="40"/>
       <c r="L172" s="38"/>
     </row>
-    <row r="173" spans="1:13">
+    <row r="173" spans="1:13" hidden="1">
       <c r="A173" s="21" t="s">
         <v>926</v>
       </c>
@@ -14720,7 +14727,7 @@
       <c r="K173" s="40"/>
       <c r="L173" s="38"/>
     </row>
-    <row r="174" spans="1:13">
+    <row r="174" spans="1:13" hidden="1">
       <c r="A174" s="21" t="s">
         <v>926</v>
       </c>
@@ -14751,7 +14758,7 @@
       <c r="K174" s="40"/>
       <c r="L174" s="38"/>
     </row>
-    <row r="175" spans="1:13">
+    <row r="175" spans="1:13" hidden="1">
       <c r="A175" s="21" t="s">
         <v>926</v>
       </c>
@@ -14824,7 +14831,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="177" spans="1:13">
+    <row r="177" spans="1:13" hidden="1">
       <c r="A177" s="21" t="s">
         <v>926</v>
       </c>
@@ -14855,7 +14862,7 @@
       <c r="K177" s="40"/>
       <c r="L177" s="38"/>
     </row>
-    <row r="178" spans="1:13">
+    <row r="178" spans="1:13" hidden="1">
       <c r="A178" s="21" t="s">
         <v>926</v>
       </c>
@@ -14928,7 +14935,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="180" spans="1:13">
+    <row r="180" spans="1:13" hidden="1">
       <c r="A180" s="21" t="s">
         <v>926</v>
       </c>
@@ -14959,7 +14966,7 @@
       <c r="K180" s="40"/>
       <c r="L180" s="38"/>
     </row>
-    <row r="181" spans="1:13">
+    <row r="181" spans="1:13" hidden="1">
       <c r="A181" s="21" t="s">
         <v>926</v>
       </c>
@@ -15032,7 +15039,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="183" spans="1:13">
+    <row r="183" spans="1:13" hidden="1">
       <c r="A183" s="21" t="s">
         <v>926</v>
       </c>
@@ -15063,7 +15070,7 @@
       <c r="K183" s="40"/>
       <c r="L183" s="38"/>
     </row>
-    <row r="184" spans="1:13">
+    <row r="184" spans="1:13" hidden="1">
       <c r="A184" s="21" t="s">
         <v>926</v>
       </c>
@@ -15095,7 +15102,7 @@
       <c r="J184" s="39"/>
       <c r="L184" s="38"/>
     </row>
-    <row r="185" spans="1:13">
+    <row r="185" spans="1:13" hidden="1">
       <c r="A185" s="21" t="s">
         <v>926</v>
       </c>
@@ -15127,7 +15134,7 @@
       <c r="J185" s="39"/>
       <c r="L185" s="38"/>
     </row>
-    <row r="186" spans="1:13">
+    <row r="186" spans="1:13" hidden="1">
       <c r="A186" s="21" t="s">
         <v>926</v>
       </c>
@@ -15159,7 +15166,7 @@
       <c r="J186" s="39"/>
       <c r="L186" s="38"/>
     </row>
-    <row r="187" spans="1:13">
+    <row r="187" spans="1:13" hidden="1">
       <c r="A187" s="21" t="s">
         <v>926</v>
       </c>
@@ -15189,7 +15196,7 @@
       <c r="J187" s="39"/>
       <c r="L187" s="38"/>
     </row>
-    <row r="188" spans="1:13">
+    <row r="188" spans="1:13" hidden="1">
       <c r="A188" s="21" t="s">
         <v>926</v>
       </c>
@@ -15304,7 +15311,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="191" spans="1:13">
+    <row r="191" spans="1:13" hidden="1">
       <c r="A191" s="21" t="s">
         <v>926</v>
       </c>
@@ -15377,7 +15384,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="193" spans="1:13">
+    <row r="193" spans="1:13" hidden="1">
       <c r="A193" s="21" t="s">
         <v>926</v>
       </c>
@@ -15450,7 +15457,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="195" spans="1:13">
+    <row r="195" spans="1:13" hidden="1">
       <c r="A195" s="21" t="s">
         <v>926</v>
       </c>
@@ -15523,7 +15530,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="197" spans="1:13">
+    <row r="197" spans="1:13" hidden="1">
       <c r="A197" s="21" t="s">
         <v>926</v>
       </c>
@@ -15554,7 +15561,7 @@
       <c r="K197" s="40"/>
       <c r="L197" s="38"/>
     </row>
-    <row r="198" spans="1:13">
+    <row r="198" spans="1:13" hidden="1">
       <c r="A198" s="21" t="s">
         <v>926</v>
       </c>
@@ -15585,7 +15592,7 @@
       <c r="K198" s="40"/>
       <c r="L198" s="38"/>
     </row>
-    <row r="199" spans="1:13">
+    <row r="199" spans="1:13" hidden="1">
       <c r="A199" s="21" t="s">
         <v>926</v>
       </c>
@@ -15616,7 +15623,7 @@
       <c r="K199" s="40"/>
       <c r="L199" s="38"/>
     </row>
-    <row r="200" spans="1:13">
+    <row r="200" spans="1:13" hidden="1">
       <c r="A200" s="21" t="s">
         <v>926</v>
       </c>
@@ -15647,7 +15654,7 @@
       <c r="K200" s="40"/>
       <c r="L200" s="38"/>
     </row>
-    <row r="201" spans="1:13">
+    <row r="201" spans="1:13" hidden="1">
       <c r="A201" s="21" t="s">
         <v>926</v>
       </c>
@@ -15678,7 +15685,7 @@
       <c r="K201" s="40"/>
       <c r="L201" s="38"/>
     </row>
-    <row r="202" spans="1:13">
+    <row r="202" spans="1:13" hidden="1">
       <c r="A202" s="21" t="s">
         <v>926</v>
       </c>
@@ -15709,7 +15716,7 @@
       <c r="K202" s="40"/>
       <c r="L202" s="38"/>
     </row>
-    <row r="203" spans="1:13">
+    <row r="203" spans="1:13" hidden="1">
       <c r="A203" s="21" t="s">
         <v>926</v>
       </c>
@@ -15740,7 +15747,7 @@
       <c r="K203" s="40"/>
       <c r="L203" s="38"/>
     </row>
-    <row r="204" spans="1:13">
+    <row r="204" spans="1:13" hidden="1">
       <c r="A204" s="21" t="s">
         <v>926</v>
       </c>
@@ -15813,7 +15820,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="206" spans="1:13">
+    <row r="206" spans="1:13" hidden="1">
       <c r="A206" s="21" t="s">
         <v>926</v>
       </c>
@@ -15844,7 +15851,7 @@
       <c r="K206" s="40"/>
       <c r="L206" s="38"/>
     </row>
-    <row r="207" spans="1:13">
+    <row r="207" spans="1:13" hidden="1">
       <c r="A207" s="21" t="s">
         <v>926</v>
       </c>
@@ -15917,7 +15924,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="209" spans="1:13">
+    <row r="209" spans="1:13" hidden="1">
       <c r="A209" s="21" t="s">
         <v>926</v>
       </c>
@@ -15949,7 +15956,7 @@
       <c r="J209" s="39"/>
       <c r="L209" s="38"/>
     </row>
-    <row r="210" spans="1:13">
+    <row r="210" spans="1:13" hidden="1">
       <c r="A210" s="21" t="s">
         <v>926</v>
       </c>
@@ -15981,7 +15988,7 @@
       <c r="J210" s="39"/>
       <c r="L210" s="38"/>
     </row>
-    <row r="211" spans="1:13">
+    <row r="211" spans="1:13" hidden="1">
       <c r="A211" s="21" t="s">
         <v>926</v>
       </c>
@@ -16011,7 +16018,7 @@
       <c r="J211" s="39"/>
       <c r="L211" s="38"/>
     </row>
-    <row r="212" spans="1:13">
+    <row r="212" spans="1:13" hidden="1">
       <c r="A212" s="21" t="s">
         <v>926</v>
       </c>
@@ -16041,7 +16048,7 @@
       <c r="J212" s="39"/>
       <c r="L212" s="38"/>
     </row>
-    <row r="213" spans="1:13">
+    <row r="213" spans="1:13" hidden="1">
       <c r="A213" s="21" t="s">
         <v>926</v>
       </c>
@@ -16073,7 +16080,7 @@
       <c r="J213" s="39"/>
       <c r="L213" s="38"/>
     </row>
-    <row r="214" spans="1:13">
+    <row r="214" spans="1:13" hidden="1">
       <c r="A214" s="21" t="s">
         <v>926</v>
       </c>
@@ -16105,7 +16112,7 @@
       <c r="J214" s="39"/>
       <c r="L214" s="38"/>
     </row>
-    <row r="215" spans="1:13">
+    <row r="215" spans="1:13" hidden="1">
       <c r="A215" s="21" t="s">
         <v>926</v>
       </c>
@@ -16135,7 +16142,7 @@
       <c r="J215" s="39"/>
       <c r="L215" s="38"/>
     </row>
-    <row r="216" spans="1:13">
+    <row r="216" spans="1:13" hidden="1">
       <c r="A216" s="21" t="s">
         <v>926</v>
       </c>
@@ -16166,7 +16173,7 @@
       <c r="K216" s="40"/>
       <c r="L216" s="38"/>
     </row>
-    <row r="217" spans="1:13">
+    <row r="217" spans="1:13" hidden="1">
       <c r="A217" s="21" t="s">
         <v>926</v>
       </c>
@@ -16232,7 +16239,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="219" spans="1:13">
+    <row r="219" spans="1:13" hidden="1">
       <c r="A219" s="21" t="s">
         <v>926</v>
       </c>
@@ -16342,7 +16349,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="222" spans="1:13">
+    <row r="222" spans="1:13" hidden="1">
       <c r="A222" s="21" t="s">
         <v>926</v>
       </c>
@@ -16374,7 +16381,7 @@
       <c r="J222" s="36"/>
       <c r="K222" s="36"/>
     </row>
-    <row r="223" spans="1:13">
+    <row r="223" spans="1:13" hidden="1">
       <c r="A223" s="21" t="s">
         <v>926</v>
       </c>
@@ -16444,7 +16451,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="225" spans="1:13">
+    <row r="225" spans="1:13" hidden="1">
       <c r="A225" s="21" t="s">
         <v>926</v>
       </c>
@@ -16474,7 +16481,7 @@
       <c r="J225" s="36"/>
       <c r="K225" s="36"/>
     </row>
-    <row r="226" spans="1:13">
+    <row r="226" spans="1:13" hidden="1">
       <c r="A226" s="21" t="s">
         <v>926</v>
       </c>
@@ -16504,7 +16511,7 @@
       <c r="J226" s="36"/>
       <c r="K226" s="36"/>
     </row>
-    <row r="227" spans="1:13">
+    <row r="227" spans="1:13" hidden="1">
       <c r="A227" s="21" t="s">
         <v>926</v>
       </c>
@@ -16534,7 +16541,7 @@
       <c r="J227" s="36"/>
       <c r="K227" s="36"/>
     </row>
-    <row r="228" spans="1:13">
+    <row r="228" spans="1:13" hidden="1">
       <c r="A228" s="21" t="s">
         <v>926</v>
       </c>
@@ -16604,7 +16611,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="230" spans="1:13">
+    <row r="230" spans="1:13" hidden="1">
       <c r="A230" s="21" t="s">
         <v>926</v>
       </c>
@@ -16674,7 +16681,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="232" spans="1:13">
+    <row r="232" spans="1:13" hidden="1">
       <c r="A232" s="21" t="s">
         <v>926</v>
       </c>
@@ -16704,7 +16711,7 @@
       <c r="J232" s="36"/>
       <c r="K232" s="36"/>
     </row>
-    <row r="233" spans="1:13">
+    <row r="233" spans="1:13" hidden="1">
       <c r="A233" s="21" t="s">
         <v>926</v>
       </c>
@@ -16736,7 +16743,7 @@
       <c r="J233" s="36"/>
       <c r="K233" s="36"/>
     </row>
-    <row r="234" spans="1:13">
+    <row r="234" spans="1:13" hidden="1">
       <c r="A234" s="21" t="s">
         <v>926</v>
       </c>
@@ -16806,7 +16813,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="236" spans="1:13">
+    <row r="236" spans="1:13" hidden="1">
       <c r="A236" s="21" t="s">
         <v>926</v>
       </c>
@@ -16838,7 +16845,7 @@
       <c r="J236" s="36"/>
       <c r="K236" s="36"/>
     </row>
-    <row r="237" spans="1:13">
+    <row r="237" spans="1:13" hidden="1">
       <c r="A237" s="21" t="s">
         <v>926</v>
       </c>
@@ -16870,7 +16877,7 @@
       <c r="J237" s="36"/>
       <c r="K237" s="36"/>
     </row>
-    <row r="238" spans="1:13">
+    <row r="238" spans="1:13" hidden="1">
       <c r="A238" s="21" t="s">
         <v>926</v>
       </c>
@@ -16940,7 +16947,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="240" spans="1:13">
+    <row r="240" spans="1:13" hidden="1">
       <c r="A240" s="21" t="s">
         <v>926</v>
       </c>
@@ -16972,7 +16979,7 @@
       <c r="J240" s="36"/>
       <c r="K240" s="36"/>
     </row>
-    <row r="241" spans="1:13">
+    <row r="241" spans="1:13" hidden="1">
       <c r="A241" s="21" t="s">
         <v>926</v>
       </c>
@@ -17002,7 +17009,7 @@
       <c r="J241" s="36"/>
       <c r="K241" s="36"/>
     </row>
-    <row r="242" spans="1:13">
+    <row r="242" spans="1:13" hidden="1">
       <c r="A242" s="21" t="s">
         <v>926</v>
       </c>
@@ -17034,7 +17041,7 @@
       <c r="J242" s="36"/>
       <c r="K242" s="36"/>
     </row>
-    <row r="243" spans="1:13">
+    <row r="243" spans="1:13" hidden="1">
       <c r="A243" s="21" t="s">
         <v>926</v>
       </c>
@@ -17104,7 +17111,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="245" spans="1:13">
+    <row r="245" spans="1:13" hidden="1">
       <c r="A245" s="21" t="s">
         <v>926</v>
       </c>
@@ -17174,7 +17181,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="247" spans="1:13">
+    <row r="247" spans="1:13" hidden="1">
       <c r="A247" s="21" t="s">
         <v>926</v>
       </c>
@@ -17204,7 +17211,7 @@
       <c r="J247" s="36"/>
       <c r="K247" s="36"/>
     </row>
-    <row r="248" spans="1:13">
+    <row r="248" spans="1:13" hidden="1">
       <c r="A248" s="21" t="s">
         <v>926</v>
       </c>
@@ -17236,7 +17243,7 @@
       <c r="J248" s="36"/>
       <c r="K248" s="36"/>
     </row>
-    <row r="249" spans="1:13">
+    <row r="249" spans="1:13" hidden="1">
       <c r="A249" s="21" t="s">
         <v>926</v>
       </c>
@@ -17346,7 +17353,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="252" spans="1:13">
+    <row r="252" spans="1:13" hidden="1">
       <c r="A252" s="21" t="s">
         <v>926</v>
       </c>
@@ -17378,7 +17385,7 @@
       <c r="J252" s="36"/>
       <c r="K252" s="36"/>
     </row>
-    <row r="253" spans="1:13">
+    <row r="253" spans="1:13" hidden="1">
       <c r="A253" s="21" t="s">
         <v>926</v>
       </c>
@@ -17408,7 +17415,7 @@
       <c r="J253" s="36"/>
       <c r="K253" s="36"/>
     </row>
-    <row r="254" spans="1:13">
+    <row r="254" spans="1:13" hidden="1">
       <c r="A254" s="21" t="s">
         <v>926</v>
       </c>
@@ -17438,7 +17445,7 @@
       <c r="J254" s="36"/>
       <c r="K254" s="36"/>
     </row>
-    <row r="255" spans="1:13">
+    <row r="255" spans="1:13" hidden="1">
       <c r="A255" s="21" t="s">
         <v>926</v>
       </c>
@@ -17468,7 +17475,7 @@
       <c r="J255" s="36"/>
       <c r="K255" s="36"/>
     </row>
-    <row r="256" spans="1:13">
+    <row r="256" spans="1:13" hidden="1">
       <c r="A256" s="21" t="s">
         <v>926</v>
       </c>
@@ -17498,7 +17505,7 @@
       <c r="J256" s="36"/>
       <c r="K256" s="36"/>
     </row>
-    <row r="257" spans="1:13">
+    <row r="257" spans="1:13" hidden="1">
       <c r="A257" s="21" t="s">
         <v>926</v>
       </c>
@@ -17528,7 +17535,7 @@
       <c r="J257" s="36"/>
       <c r="K257" s="36"/>
     </row>
-    <row r="258" spans="1:13">
+    <row r="258" spans="1:13" hidden="1">
       <c r="A258" s="21" t="s">
         <v>926</v>
       </c>
@@ -17560,7 +17567,7 @@
       <c r="J258" s="36"/>
       <c r="K258" s="36"/>
     </row>
-    <row r="259" spans="1:13">
+    <row r="259" spans="1:13" hidden="1">
       <c r="A259" s="21" t="s">
         <v>926</v>
       </c>
@@ -17590,7 +17597,7 @@
       <c r="J259" s="36"/>
       <c r="K259" s="36"/>
     </row>
-    <row r="260" spans="1:13">
+    <row r="260" spans="1:13" hidden="1">
       <c r="A260" s="21" t="s">
         <v>926</v>
       </c>
@@ -17622,7 +17629,7 @@
       <c r="J260" s="36"/>
       <c r="K260" s="36"/>
     </row>
-    <row r="261" spans="1:13">
+    <row r="261" spans="1:13" hidden="1">
       <c r="A261" s="21" t="s">
         <v>926</v>
       </c>
@@ -17652,7 +17659,7 @@
       <c r="J261" s="36"/>
       <c r="K261" s="36"/>
     </row>
-    <row r="262" spans="1:13">
+    <row r="262" spans="1:13" hidden="1">
       <c r="A262" s="21" t="s">
         <v>926</v>
       </c>
@@ -17724,7 +17731,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="264" spans="1:13">
+    <row r="264" spans="1:13" hidden="1">
       <c r="A264" s="21" t="s">
         <v>926</v>
       </c>
@@ -17754,7 +17761,7 @@
       <c r="J264" s="36"/>
       <c r="K264" s="36"/>
     </row>
-    <row r="265" spans="1:13">
+    <row r="265" spans="1:13" hidden="1">
       <c r="A265" s="21" t="s">
         <v>926</v>
       </c>
@@ -17784,7 +17791,7 @@
       <c r="J265" s="36"/>
       <c r="K265" s="36"/>
     </row>
-    <row r="266" spans="1:13">
+    <row r="266" spans="1:13" hidden="1">
       <c r="A266" s="21" t="s">
         <v>926</v>
       </c>
@@ -17816,7 +17823,7 @@
       <c r="J266" s="36"/>
       <c r="K266" s="36"/>
     </row>
-    <row r="267" spans="1:13">
+    <row r="267" spans="1:13" hidden="1">
       <c r="A267" s="21" t="s">
         <v>926</v>
       </c>
@@ -17886,7 +17893,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="269" spans="1:13">
+    <row r="269" spans="1:13" hidden="1">
       <c r="A269" s="21" t="s">
         <v>926</v>
       </c>
@@ -17916,7 +17923,7 @@
       <c r="J269" s="36"/>
       <c r="K269" s="36"/>
     </row>
-    <row r="270" spans="1:13">
+    <row r="270" spans="1:13" hidden="1">
       <c r="A270" s="21" t="s">
         <v>926</v>
       </c>
@@ -18068,7 +18075,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="274" spans="1:13">
+    <row r="274" spans="1:13" hidden="1">
       <c r="A274" s="21" t="s">
         <v>926</v>
       </c>
@@ -18098,7 +18105,7 @@
       <c r="J274" s="36"/>
       <c r="K274" s="36"/>
     </row>
-    <row r="275" spans="1:13">
+    <row r="275" spans="1:13" hidden="1">
       <c r="A275" s="21" t="s">
         <v>926</v>
       </c>
@@ -18130,7 +18137,7 @@
       <c r="J275" s="36"/>
       <c r="K275" s="36"/>
     </row>
-    <row r="276" spans="1:13">
+    <row r="276" spans="1:13" hidden="1">
       <c r="A276" s="21" t="s">
         <v>926</v>
       </c>
@@ -18160,7 +18167,7 @@
       <c r="J276" s="36"/>
       <c r="K276" s="36"/>
     </row>
-    <row r="277" spans="1:13">
+    <row r="277" spans="1:13" hidden="1">
       <c r="A277" s="21" t="s">
         <v>926</v>
       </c>
@@ -18192,7 +18199,7 @@
       <c r="J277" s="36"/>
       <c r="K277" s="36"/>
     </row>
-    <row r="278" spans="1:13">
+    <row r="278" spans="1:13" hidden="1">
       <c r="A278" s="21" t="s">
         <v>926</v>
       </c>
@@ -18222,7 +18229,7 @@
       <c r="J278" s="36"/>
       <c r="K278" s="36"/>
     </row>
-    <row r="279" spans="1:13">
+    <row r="279" spans="1:13" hidden="1">
       <c r="A279" s="21" t="s">
         <v>926</v>
       </c>
@@ -18254,7 +18261,7 @@
       <c r="J279" s="36"/>
       <c r="K279" s="36"/>
     </row>
-    <row r="280" spans="1:13">
+    <row r="280" spans="1:13" hidden="1">
       <c r="A280" s="21" t="s">
         <v>926</v>
       </c>
@@ -18286,7 +18293,7 @@
       <c r="J280" s="36"/>
       <c r="K280" s="36"/>
     </row>
-    <row r="281" spans="1:13">
+    <row r="281" spans="1:13" hidden="1">
       <c r="A281" s="21" t="s">
         <v>926</v>
       </c>
@@ -18356,7 +18363,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="283" spans="1:13">
+    <row r="283" spans="1:13" hidden="1">
       <c r="A283" s="21" t="s">
         <v>926</v>
       </c>
@@ -18426,7 +18433,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="285" spans="1:13">
+    <row r="285" spans="1:13" hidden="1">
       <c r="A285" s="21" t="s">
         <v>926</v>
       </c>
@@ -18496,7 +18503,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="287" spans="1:13">
+    <row r="287" spans="1:13" hidden="1">
       <c r="A287" s="21" t="s">
         <v>926</v>
       </c>
@@ -18528,7 +18535,7 @@
       <c r="J287" s="36"/>
       <c r="K287" s="36"/>
     </row>
-    <row r="288" spans="1:13">
+    <row r="288" spans="1:13" hidden="1">
       <c r="A288" s="21" t="s">
         <v>926</v>
       </c>
@@ -18558,7 +18565,7 @@
       <c r="J288" s="36"/>
       <c r="K288" s="36"/>
     </row>
-    <row r="289" spans="1:11">
+    <row r="289" spans="1:11" hidden="1">
       <c r="A289" s="21" t="s">
         <v>926</v>
       </c>
@@ -18588,7 +18595,7 @@
       <c r="J289" s="36"/>
       <c r="K289" s="36"/>
     </row>
-    <row r="290" spans="1:11">
+    <row r="290" spans="1:11" hidden="1">
       <c r="A290" s="21" t="s">
         <v>926</v>
       </c>
@@ -18618,7 +18625,7 @@
       <c r="J290" s="36"/>
       <c r="K290" s="36"/>
     </row>
-    <row r="291" spans="1:11">
+    <row r="291" spans="1:11" hidden="1">
       <c r="A291" s="21" t="s">
         <v>926</v>
       </c>
@@ -18650,7 +18657,7 @@
       <c r="J291" s="36"/>
       <c r="K291" s="36"/>
     </row>
-    <row r="292" spans="1:11">
+    <row r="292" spans="1:11" hidden="1">
       <c r="A292" s="21" t="s">
         <v>926</v>
       </c>
@@ -18682,7 +18689,7 @@
       <c r="J292" s="36"/>
       <c r="K292" s="36"/>
     </row>
-    <row r="293" spans="1:11">
+    <row r="293" spans="1:11" hidden="1">
       <c r="A293" s="21" t="s">
         <v>926</v>
       </c>
@@ -18714,7 +18721,7 @@
       <c r="J293" s="36"/>
       <c r="K293" s="36"/>
     </row>
-    <row r="294" spans="1:11">
+    <row r="294" spans="1:11" hidden="1">
       <c r="A294" s="21" t="s">
         <v>926</v>
       </c>
@@ -18744,7 +18751,7 @@
       <c r="J294" s="36"/>
       <c r="K294" s="36"/>
     </row>
-    <row r="295" spans="1:11">
+    <row r="295" spans="1:11" hidden="1">
       <c r="A295" s="21" t="s">
         <v>926</v>
       </c>
@@ -18774,7 +18781,7 @@
       <c r="J295" s="36"/>
       <c r="K295" s="36"/>
     </row>
-    <row r="296" spans="1:11">
+    <row r="296" spans="1:11" hidden="1">
       <c r="A296" s="21" t="s">
         <v>926</v>
       </c>
@@ -18804,7 +18811,7 @@
       <c r="J296" s="36"/>
       <c r="K296" s="36"/>
     </row>
-    <row r="297" spans="1:11">
+    <row r="297" spans="1:11" hidden="1">
       <c r="A297" s="21" t="s">
         <v>926</v>
       </c>
@@ -18834,7 +18841,7 @@
       <c r="J297" s="36"/>
       <c r="K297" s="36"/>
     </row>
-    <row r="298" spans="1:11">
+    <row r="298" spans="1:11" hidden="1">
       <c r="A298" s="21" t="s">
         <v>926</v>
       </c>
@@ -18864,7 +18871,7 @@
       <c r="J298" s="36"/>
       <c r="K298" s="36"/>
     </row>
-    <row r="299" spans="1:11">
+    <row r="299" spans="1:11" hidden="1">
       <c r="A299" s="21" t="s">
         <v>926</v>
       </c>
@@ -18896,7 +18903,7 @@
       <c r="J299" s="36"/>
       <c r="K299" s="36"/>
     </row>
-    <row r="300" spans="1:11">
+    <row r="300" spans="1:11" hidden="1">
       <c r="A300" s="21" t="s">
         <v>926</v>
       </c>
@@ -18926,7 +18933,7 @@
       <c r="J300" s="36"/>
       <c r="K300" s="36"/>
     </row>
-    <row r="301" spans="1:11">
+    <row r="301" spans="1:11" hidden="1">
       <c r="A301" s="21" t="s">
         <v>926</v>
       </c>
@@ -18956,7 +18963,7 @@
       <c r="J301" s="36"/>
       <c r="K301" s="36"/>
     </row>
-    <row r="302" spans="1:11">
+    <row r="302" spans="1:11" hidden="1">
       <c r="A302" s="21" t="s">
         <v>926</v>
       </c>
@@ -18988,7 +18995,7 @@
       <c r="J302" s="36"/>
       <c r="K302" s="36"/>
     </row>
-    <row r="303" spans="1:11">
+    <row r="303" spans="1:11" hidden="1">
       <c r="A303" s="21" t="s">
         <v>926</v>
       </c>
@@ -19018,7 +19025,7 @@
       <c r="J303" s="36"/>
       <c r="K303" s="36"/>
     </row>
-    <row r="304" spans="1:11">
+    <row r="304" spans="1:11" hidden="1">
       <c r="A304" s="21" t="s">
         <v>926</v>
       </c>
@@ -19048,7 +19055,7 @@
       <c r="J304" s="36"/>
       <c r="K304" s="36"/>
     </row>
-    <row r="305" spans="1:13">
+    <row r="305" spans="1:13" hidden="1">
       <c r="A305" s="21" t="s">
         <v>926</v>
       </c>
@@ -19078,7 +19085,7 @@
       <c r="J305" s="36"/>
       <c r="K305" s="36"/>
     </row>
-    <row r="306" spans="1:13">
+    <row r="306" spans="1:13" hidden="1">
       <c r="A306" s="21" t="s">
         <v>926</v>
       </c>
@@ -19108,7 +19115,7 @@
       <c r="J306" s="36"/>
       <c r="K306" s="36"/>
     </row>
-    <row r="307" spans="1:13">
+    <row r="307" spans="1:13" hidden="1">
       <c r="A307" s="21" t="s">
         <v>926</v>
       </c>
@@ -19138,7 +19145,7 @@
       <c r="J307" s="36"/>
       <c r="K307" s="36"/>
     </row>
-    <row r="308" spans="1:13">
+    <row r="308" spans="1:13" hidden="1">
       <c r="A308" s="21" t="s">
         <v>926</v>
       </c>
@@ -19170,7 +19177,7 @@
       <c r="J308" s="36"/>
       <c r="K308" s="36"/>
     </row>
-    <row r="309" spans="1:13">
+    <row r="309" spans="1:13" hidden="1">
       <c r="A309" s="21" t="s">
         <v>926</v>
       </c>
@@ -19240,7 +19247,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="311" spans="1:13">
+    <row r="311" spans="1:13" hidden="1">
       <c r="A311" s="21" t="s">
         <v>926</v>
       </c>
@@ -19270,7 +19277,7 @@
       <c r="J311" s="36"/>
       <c r="K311" s="36"/>
     </row>
-    <row r="312" spans="1:13">
+    <row r="312" spans="1:13" hidden="1">
       <c r="A312" s="21" t="s">
         <v>926</v>
       </c>
@@ -19302,7 +19309,7 @@
       <c r="J312" s="36"/>
       <c r="K312" s="36"/>
     </row>
-    <row r="313" spans="1:13">
+    <row r="313" spans="1:13" hidden="1">
       <c r="A313" s="21" t="s">
         <v>926</v>
       </c>
@@ -19332,7 +19339,7 @@
       <c r="J313" s="36"/>
       <c r="K313" s="36"/>
     </row>
-    <row r="314" spans="1:13">
+    <row r="314" spans="1:13" hidden="1">
       <c r="A314" s="21" t="s">
         <v>926</v>
       </c>
@@ -19364,7 +19371,7 @@
       <c r="J314" s="36"/>
       <c r="K314" s="36"/>
     </row>
-    <row r="315" spans="1:13">
+    <row r="315" spans="1:13" hidden="1">
       <c r="A315" s="21" t="s">
         <v>926</v>
       </c>
@@ -19394,7 +19401,7 @@
       <c r="J315" s="36"/>
       <c r="K315" s="36"/>
     </row>
-    <row r="316" spans="1:13">
+    <row r="316" spans="1:13" hidden="1">
       <c r="A316" s="21" t="s">
         <v>926</v>
       </c>
@@ -19424,7 +19431,7 @@
       <c r="J316" s="38"/>
       <c r="K316" s="38"/>
     </row>
-    <row r="317" spans="1:13">
+    <row r="317" spans="1:13" hidden="1">
       <c r="A317" s="21" t="s">
         <v>926</v>
       </c>
@@ -19456,7 +19463,7 @@
       <c r="J317" s="36"/>
       <c r="K317" s="36"/>
     </row>
-    <row r="318" spans="1:13">
+    <row r="318" spans="1:13" hidden="1">
       <c r="A318" s="21" t="s">
         <v>926</v>
       </c>
@@ -19486,7 +19493,7 @@
       <c r="J318" s="36"/>
       <c r="K318" s="36"/>
     </row>
-    <row r="319" spans="1:13">
+    <row r="319" spans="1:13" hidden="1">
       <c r="A319" s="21" t="s">
         <v>926</v>
       </c>
@@ -19556,7 +19563,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="321" spans="1:13">
+    <row r="321" spans="1:13" hidden="1">
       <c r="A321" s="21" t="s">
         <v>926</v>
       </c>
@@ -19626,7 +19633,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="323" spans="1:13">
+    <row r="323" spans="1:13" hidden="1">
       <c r="A323" s="21" t="s">
         <v>926</v>
       </c>
@@ -19658,7 +19665,7 @@
       <c r="J323" s="36"/>
       <c r="K323" s="36"/>
     </row>
-    <row r="324" spans="1:13">
+    <row r="324" spans="1:13" hidden="1">
       <c r="A324" s="21" t="s">
         <v>926</v>
       </c>
@@ -19728,7 +19735,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="326" spans="1:13">
+    <row r="326" spans="1:13" hidden="1">
       <c r="A326" s="21" t="s">
         <v>926</v>
       </c>
@@ -19758,7 +19765,7 @@
       <c r="J326" s="36"/>
       <c r="K326" s="36"/>
     </row>
-    <row r="327" spans="1:13">
+    <row r="327" spans="1:13" hidden="1">
       <c r="A327" s="21" t="s">
         <v>926</v>
       </c>
@@ -19783,7 +19790,7 @@
       <c r="J327" s="36"/>
       <c r="K327" s="36"/>
     </row>
-    <row r="328" spans="1:13">
+    <row r="328" spans="1:13" hidden="1">
       <c r="A328" s="21" t="s">
         <v>926</v>
       </c>
@@ -19814,7 +19821,7 @@
       <c r="K328" s="36"/>
       <c r="L328" s="36"/>
     </row>
-    <row r="329" spans="1:13">
+    <row r="329" spans="1:13" hidden="1">
       <c r="A329" s="21" t="s">
         <v>926</v>
       </c>
@@ -19847,7 +19854,7 @@
       <c r="K329" s="34"/>
       <c r="L329" s="36"/>
     </row>
-    <row r="330" spans="1:13">
+    <row r="330" spans="1:13" hidden="1">
       <c r="A330" s="21" t="s">
         <v>926</v>
       </c>
@@ -19918,7 +19925,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="332" spans="1:13">
+    <row r="332" spans="1:13" hidden="1">
       <c r="A332" s="21" t="s">
         <v>926</v>
       </c>
@@ -19951,7 +19958,7 @@
       <c r="K332" s="36"/>
       <c r="L332" s="36"/>
     </row>
-    <row r="333" spans="1:13">
+    <row r="333" spans="1:13" hidden="1">
       <c r="A333" s="21" t="s">
         <v>926</v>
       </c>
@@ -19982,7 +19989,7 @@
       <c r="K333" s="34"/>
       <c r="L333" s="36"/>
     </row>
-    <row r="334" spans="1:13">
+    <row r="334" spans="1:13" hidden="1">
       <c r="A334" s="21" t="s">
         <v>926</v>
       </c>
@@ -20013,7 +20020,7 @@
       <c r="K334" s="36"/>
       <c r="L334" s="36"/>
     </row>
-    <row r="335" spans="1:13">
+    <row r="335" spans="1:13" hidden="1">
       <c r="A335" s="21" t="s">
         <v>926</v>
       </c>
@@ -20045,7 +20052,7 @@
       <c r="J335" s="34"/>
       <c r="K335" s="34"/>
     </row>
-    <row r="336" spans="1:13">
+    <row r="336" spans="1:13" hidden="1">
       <c r="A336" s="21" t="s">
         <v>926</v>
       </c>
@@ -20118,7 +20125,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="338" spans="1:13">
+    <row r="338" spans="1:13" hidden="1">
       <c r="A338" s="21" t="s">
         <v>926</v>
       </c>
@@ -20151,7 +20158,7 @@
       <c r="K338" s="36"/>
       <c r="L338" s="36"/>
     </row>
-    <row r="339" spans="1:13">
+    <row r="339" spans="1:13" hidden="1">
       <c r="A339" s="21" t="s">
         <v>926</v>
       </c>
@@ -20182,7 +20189,7 @@
       <c r="K339" s="34"/>
       <c r="L339" s="36"/>
     </row>
-    <row r="340" spans="1:13">
+    <row r="340" spans="1:13" hidden="1">
       <c r="A340" s="21" t="s">
         <v>926</v>
       </c>
@@ -20215,7 +20222,7 @@
       <c r="K340" s="36"/>
       <c r="L340" s="36"/>
     </row>
-    <row r="341" spans="1:13">
+    <row r="341" spans="1:13" hidden="1">
       <c r="A341" s="21" t="s">
         <v>926</v>
       </c>
@@ -20246,7 +20253,7 @@
       <c r="K341" s="34"/>
       <c r="L341" s="36"/>
     </row>
-    <row r="342" spans="1:13">
+    <row r="342" spans="1:13" hidden="1">
       <c r="A342" s="21" t="s">
         <v>926</v>
       </c>
@@ -20317,7 +20324,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="344" spans="1:13">
+    <row r="344" spans="1:13" hidden="1">
       <c r="A344" s="21" t="s">
         <v>926</v>
       </c>
@@ -20351,7 +20358,7 @@
       </c>
       <c r="K344" s="36"/>
     </row>
-    <row r="345" spans="1:13">
+    <row r="345" spans="1:13" hidden="1">
       <c r="A345" s="21" t="s">
         <v>926</v>
       </c>
@@ -20382,7 +20389,7 @@
       <c r="K345" s="36"/>
       <c r="L345" s="36"/>
     </row>
-    <row r="346" spans="1:13">
+    <row r="346" spans="1:13" hidden="1">
       <c r="A346" s="21" t="s">
         <v>926</v>
       </c>
@@ -20415,7 +20422,7 @@
       <c r="K346" s="36"/>
       <c r="L346" s="36"/>
     </row>
-    <row r="347" spans="1:13">
+    <row r="347" spans="1:13" hidden="1">
       <c r="A347" s="21" t="s">
         <v>926</v>
       </c>
@@ -20486,7 +20493,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="349" spans="1:13">
+    <row r="349" spans="1:13" hidden="1">
       <c r="A349" s="21" t="s">
         <v>926</v>
       </c>
@@ -20517,7 +20524,7 @@
       <c r="K349" s="36"/>
       <c r="L349" s="36"/>
     </row>
-    <row r="350" spans="1:13">
+    <row r="350" spans="1:13" hidden="1">
       <c r="A350" s="21" t="s">
         <v>926</v>
       </c>
@@ -20588,7 +20595,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="352" spans="1:13">
+    <row r="352" spans="1:13" hidden="1">
       <c r="A352" s="21" t="s">
         <v>926</v>
       </c>
@@ -20622,7 +20629,7 @@
       </c>
       <c r="K352" s="36"/>
     </row>
-    <row r="353" spans="1:13">
+    <row r="353" spans="1:13" hidden="1">
       <c r="A353" s="21" t="s">
         <v>926</v>
       </c>
@@ -20693,7 +20700,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="355" spans="1:13">
+    <row r="355" spans="1:13" hidden="1">
       <c r="A355" s="21" t="s">
         <v>926</v>
       </c>
@@ -20724,7 +20731,7 @@
       <c r="K355" s="36"/>
       <c r="L355" s="36"/>
     </row>
-    <row r="356" spans="1:13">
+    <row r="356" spans="1:13" hidden="1">
       <c r="A356" s="21" t="s">
         <v>926</v>
       </c>
@@ -20755,7 +20762,7 @@
       <c r="K356" s="36"/>
       <c r="L356" s="36"/>
     </row>
-    <row r="357" spans="1:13">
+    <row r="357" spans="1:13" hidden="1">
       <c r="A357" s="21" t="s">
         <v>926</v>
       </c>
@@ -20826,7 +20833,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="359" spans="1:13">
+    <row r="359" spans="1:13" hidden="1">
       <c r="A359" s="21" t="s">
         <v>926</v>
       </c>
@@ -20897,7 +20904,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="361" spans="1:13">
+    <row r="361" spans="1:13" hidden="1">
       <c r="A361" s="21" t="s">
         <v>926</v>
       </c>
@@ -20928,7 +20935,7 @@
       <c r="K361" s="34"/>
       <c r="L361" s="36"/>
     </row>
-    <row r="362" spans="1:13">
+    <row r="362" spans="1:13" hidden="1">
       <c r="A362" s="21" t="s">
         <v>926</v>
       </c>
@@ -20959,7 +20966,7 @@
       <c r="K362" s="34"/>
       <c r="L362" s="36"/>
     </row>
-    <row r="363" spans="1:13">
+    <row r="363" spans="1:13" hidden="1">
       <c r="A363" s="21" t="s">
         <v>926</v>
       </c>
@@ -20990,7 +20997,7 @@
       <c r="K363" s="34"/>
       <c r="L363" s="36"/>
     </row>
-    <row r="364" spans="1:13">
+    <row r="364" spans="1:13" hidden="1">
       <c r="A364" s="21" t="s">
         <v>926</v>
       </c>
@@ -21023,7 +21030,7 @@
       <c r="K364" s="34"/>
       <c r="L364" s="36"/>
     </row>
-    <row r="365" spans="1:13">
+    <row r="365" spans="1:13" hidden="1">
       <c r="A365" s="21" t="s">
         <v>926</v>
       </c>
@@ -21094,7 +21101,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="367" spans="1:13">
+    <row r="367" spans="1:13" hidden="1">
       <c r="A367" s="21" t="s">
         <v>926</v>
       </c>
@@ -21201,8 +21208,11 @@
       <c r="L369" s="36" t="s">
         <v>991</v>
       </c>
-    </row>
-    <row r="370" spans="1:13">
+      <c r="M369" s="65" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="370" spans="1:13" hidden="1">
       <c r="A370" s="21" t="s">
         <v>926</v>
       </c>
@@ -21273,7 +21283,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="372" spans="1:13">
+    <row r="372" spans="1:13" hidden="1">
       <c r="A372" s="21" t="s">
         <v>926</v>
       </c>
@@ -21304,7 +21314,7 @@
       <c r="K372" s="36"/>
       <c r="L372" s="36"/>
     </row>
-    <row r="373" spans="1:13">
+    <row r="373" spans="1:13" hidden="1">
       <c r="A373" s="21" t="s">
         <v>926</v>
       </c>
@@ -21335,7 +21345,7 @@
       <c r="K373" s="34"/>
       <c r="L373" s="36"/>
     </row>
-    <row r="374" spans="1:13">
+    <row r="374" spans="1:13" hidden="1">
       <c r="A374" s="21" t="s">
         <v>926</v>
       </c>
@@ -21366,7 +21376,7 @@
       <c r="K374" s="34"/>
       <c r="L374" s="36"/>
     </row>
-    <row r="375" spans="1:13">
+    <row r="375" spans="1:13" hidden="1">
       <c r="A375" s="21" t="s">
         <v>926</v>
       </c>
@@ -21399,7 +21409,7 @@
       <c r="K375" s="36"/>
       <c r="L375" s="36"/>
     </row>
-    <row r="376" spans="1:13">
+    <row r="376" spans="1:13" hidden="1">
       <c r="A376" s="21" t="s">
         <v>926</v>
       </c>
@@ -21430,7 +21440,7 @@
       <c r="K376" s="36"/>
       <c r="L376" s="36"/>
     </row>
-    <row r="377" spans="1:13">
+    <row r="377" spans="1:13" hidden="1">
       <c r="A377" s="21" t="s">
         <v>926</v>
       </c>
@@ -21463,7 +21473,7 @@
       <c r="K377" s="36"/>
       <c r="L377" s="36"/>
     </row>
-    <row r="378" spans="1:13">
+    <row r="378" spans="1:13" hidden="1">
       <c r="A378" s="21" t="s">
         <v>926</v>
       </c>
@@ -21496,7 +21506,7 @@
       <c r="K378" s="36"/>
       <c r="L378" s="36"/>
     </row>
-    <row r="379" spans="1:13">
+    <row r="379" spans="1:13" hidden="1">
       <c r="A379" s="21" t="s">
         <v>926</v>
       </c>
@@ -21529,7 +21539,7 @@
       <c r="K379" s="36"/>
       <c r="L379" s="36"/>
     </row>
-    <row r="380" spans="1:13">
+    <row r="380" spans="1:13" hidden="1">
       <c r="A380" s="21" t="s">
         <v>926</v>
       </c>
@@ -21560,7 +21570,7 @@
       <c r="K380" s="36"/>
       <c r="L380" s="36"/>
     </row>
-    <row r="381" spans="1:13">
+    <row r="381" spans="1:13" hidden="1">
       <c r="A381" s="21" t="s">
         <v>926</v>
       </c>
@@ -21586,13 +21596,20 @@
       <c r="K381" s="36"/>
       <c r="L381" s="36"/>
     </row>
-    <row r="382" spans="1:13">
+    <row r="382" spans="1:13" hidden="1">
       <c r="G382" s="64">
         <f>SUM(G2:G380)</f>
         <v>10000</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:T382" xr:uid="{9819A132-3437-4B12-9230-DA53DEB592FE}">
+    <filterColumn colId="7">
+      <filters>
+        <filter val="HC"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>

--- a/R/2017_10_06_Completed_LN2_Deep (0m to 120m)_newcleaned.xlsx
+++ b/R/2017_10_06_Completed_LN2_Deep (0m to 120m)_newcleaned.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yeozy\Documents\Yale-NUS\Y3S1\UROPS\UROPS\R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D0B91DEB-91A3-4FE3-9556-BE08666D54CB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{DA7C9E50-049F-429A-9AAF-460F048269CC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="55" yWindow="454" windowWidth="17823" windowHeight="15220" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3063" uniqueCount="1023">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3063" uniqueCount="1021">
   <si>
     <t>SURVEY_ID</t>
   </si>
@@ -2937,9 +2937,6 @@
     <t>Lendenfeldia sp</t>
   </si>
   <si>
-    <t>RA</t>
-  </si>
-  <si>
     <t>Neptheidae</t>
   </si>
   <si>
@@ -3022,9 +3019,6 @@
   </si>
   <si>
     <t>Mycedium elephantotus</t>
-  </si>
-  <si>
-    <t>SO</t>
   </si>
   <si>
     <t>FUN</t>
@@ -9026,11 +9020,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:T382"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A320" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M369" sqref="M369"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="16.100000000000001"/>
@@ -9107,7 +9100,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="2" spans="1:20" hidden="1">
+    <row r="2" spans="1:20">
       <c r="A2" s="21" t="s">
         <v>926</v>
       </c>
@@ -9172,13 +9165,13 @@
         <v>927</v>
       </c>
       <c r="L3" s="20" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="M3" s="20" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" hidden="1">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="21" t="s">
         <v>926</v>
       </c>
@@ -9243,13 +9236,13 @@
         <v>909</v>
       </c>
       <c r="L5" s="20" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="M5" s="20" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" hidden="1">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="21" t="s">
         <v>926</v>
       </c>
@@ -9320,7 +9313,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="8" spans="1:20" hidden="1">
+    <row r="8" spans="1:20">
       <c r="A8" s="21" t="s">
         <v>926</v>
       </c>
@@ -9351,7 +9344,7 @@
       <c r="K8" s="25"/>
       <c r="L8" s="20"/>
     </row>
-    <row r="9" spans="1:20" hidden="1">
+    <row r="9" spans="1:20">
       <c r="A9" s="21" t="s">
         <v>926</v>
       </c>
@@ -9422,7 +9415,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="11" spans="1:20" hidden="1">
+    <row r="11" spans="1:20">
       <c r="A11" s="21" t="s">
         <v>926</v>
       </c>
@@ -9453,7 +9446,7 @@
       <c r="K11" s="25"/>
       <c r="L11" s="20"/>
     </row>
-    <row r="12" spans="1:20" hidden="1">
+    <row r="12" spans="1:20">
       <c r="A12" s="21" t="s">
         <v>926</v>
       </c>
@@ -9518,13 +9511,13 @@
         <v>919</v>
       </c>
       <c r="L13" s="20" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="M13" s="20" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" hidden="1">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="21" t="s">
         <v>926</v>
       </c>
@@ -9555,7 +9548,7 @@
       <c r="K14" s="25"/>
       <c r="L14" s="20"/>
     </row>
-    <row r="15" spans="1:20" hidden="1">
+    <row r="15" spans="1:20">
       <c r="A15" s="21" t="s">
         <v>926</v>
       </c>
@@ -9586,7 +9579,7 @@
       <c r="K15" s="25"/>
       <c r="L15" s="20"/>
     </row>
-    <row r="16" spans="1:20" hidden="1">
+    <row r="16" spans="1:20">
       <c r="A16" s="21" t="s">
         <v>926</v>
       </c>
@@ -9651,13 +9644,13 @@
         <v>909</v>
       </c>
       <c r="L17" s="20" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="M17" s="20" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" hidden="1">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="21" t="s">
         <v>926</v>
       </c>
@@ -9688,7 +9681,7 @@
       <c r="K18" s="25"/>
       <c r="L18" s="20"/>
     </row>
-    <row r="19" spans="1:18" hidden="1">
+    <row r="19" spans="1:18">
       <c r="A19" s="21" t="s">
         <v>926</v>
       </c>
@@ -9719,7 +9712,7 @@
       <c r="K19" s="25"/>
       <c r="L19" s="20"/>
     </row>
-    <row r="20" spans="1:18" hidden="1">
+    <row r="20" spans="1:18">
       <c r="A20" s="21" t="s">
         <v>926</v>
       </c>
@@ -9750,7 +9743,7 @@
       <c r="K20" s="25"/>
       <c r="L20" s="20"/>
     </row>
-    <row r="21" spans="1:18" hidden="1">
+    <row r="21" spans="1:18">
       <c r="A21" s="21" t="s">
         <v>926</v>
       </c>
@@ -9781,7 +9774,7 @@
       <c r="K21" s="25"/>
       <c r="L21" s="20"/>
     </row>
-    <row r="22" spans="1:18" hidden="1">
+    <row r="22" spans="1:18">
       <c r="A22" s="21" t="s">
         <v>926</v>
       </c>
@@ -9846,13 +9839,13 @@
         <v>914</v>
       </c>
       <c r="L23" s="20" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="M23" s="20" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" hidden="1">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="21" t="s">
         <v>926</v>
       </c>
@@ -9883,7 +9876,7 @@
       <c r="K24" s="25"/>
       <c r="L24" s="20"/>
     </row>
-    <row r="25" spans="1:18" hidden="1">
+    <row r="25" spans="1:18">
       <c r="A25" s="21" t="s">
         <v>926</v>
       </c>
@@ -9948,13 +9941,13 @@
         <v>927</v>
       </c>
       <c r="L26" s="20" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="M26" s="20" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" hidden="1">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
       <c r="A27" s="21" t="s">
         <v>926</v>
       </c>
@@ -10016,16 +10009,16 @@
         <v>2030</v>
       </c>
       <c r="K28" s="25" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="L28" s="20" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="M28" s="20" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" hidden="1">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
       <c r="A29" s="21" t="s">
         <v>926</v>
       </c>
@@ -10056,7 +10049,7 @@
       <c r="K29" s="25"/>
       <c r="L29" s="20"/>
     </row>
-    <row r="30" spans="1:18" hidden="1">
+    <row r="30" spans="1:18">
       <c r="A30" s="21" t="s">
         <v>926</v>
       </c>
@@ -10082,7 +10075,7 @@
       <c r="K30" s="25"/>
       <c r="L30" s="20"/>
     </row>
-    <row r="31" spans="1:18" s="49" customFormat="1" hidden="1">
+    <row r="31" spans="1:18" s="49" customFormat="1">
       <c r="A31" s="48">
         <v>43014</v>
       </c>
@@ -10113,7 +10106,7 @@
       <c r="N31" s="52"/>
       <c r="R31" s="53"/>
     </row>
-    <row r="32" spans="1:18" s="49" customFormat="1" hidden="1">
+    <row r="32" spans="1:18" s="49" customFormat="1">
       <c r="A32" s="48">
         <v>43014</v>
       </c>
@@ -10144,7 +10137,7 @@
       <c r="N32" s="52"/>
       <c r="R32" s="53"/>
     </row>
-    <row r="33" spans="1:18" s="49" customFormat="1" hidden="1">
+    <row r="33" spans="1:18" s="49" customFormat="1">
       <c r="A33" s="48">
         <v>43014</v>
       </c>
@@ -10175,7 +10168,7 @@
       <c r="N33" s="52"/>
       <c r="R33" s="53"/>
     </row>
-    <row r="34" spans="1:18" s="49" customFormat="1" hidden="1">
+    <row r="34" spans="1:18" s="49" customFormat="1">
       <c r="A34" s="48">
         <v>43014</v>
       </c>
@@ -10206,7 +10199,7 @@
       <c r="N34" s="52"/>
       <c r="R34" s="53"/>
     </row>
-    <row r="35" spans="1:18" s="49" customFormat="1" hidden="1">
+    <row r="35" spans="1:18" s="49" customFormat="1">
       <c r="A35" s="48">
         <v>43014</v>
       </c>
@@ -10237,7 +10230,7 @@
       <c r="N35" s="52"/>
       <c r="R35" s="53"/>
     </row>
-    <row r="36" spans="1:18" s="49" customFormat="1" hidden="1">
+    <row r="36" spans="1:18" s="49" customFormat="1">
       <c r="A36" s="48">
         <v>43014</v>
       </c>
@@ -10268,7 +10261,7 @@
       <c r="N36" s="52"/>
       <c r="R36" s="53"/>
     </row>
-    <row r="37" spans="1:18" s="49" customFormat="1" hidden="1">
+    <row r="37" spans="1:18" s="49" customFormat="1">
       <c r="A37" s="48">
         <v>43014</v>
       </c>
@@ -10299,7 +10292,7 @@
       <c r="N37" s="52"/>
       <c r="R37" s="53"/>
     </row>
-    <row r="38" spans="1:18" s="49" customFormat="1" hidden="1">
+    <row r="38" spans="1:18" s="49" customFormat="1">
       <c r="A38" s="48">
         <v>43014</v>
       </c>
@@ -10330,7 +10323,7 @@
       <c r="N38" s="52"/>
       <c r="R38" s="53"/>
     </row>
-    <row r="39" spans="1:18" s="49" customFormat="1" hidden="1">
+    <row r="39" spans="1:18" s="49" customFormat="1">
       <c r="A39" s="48">
         <v>43014</v>
       </c>
@@ -10388,21 +10381,21 @@
         <v>907</v>
       </c>
       <c r="J40" s="49" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="K40" s="25" t="s">
         <v>908</v>
       </c>
       <c r="L40" s="25" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="M40" s="25" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="N40" s="52"/>
       <c r="R40" s="53"/>
     </row>
-    <row r="41" spans="1:18" s="49" customFormat="1" hidden="1">
+    <row r="41" spans="1:18" s="49" customFormat="1">
       <c r="A41" s="48">
         <v>43014</v>
       </c>
@@ -10433,7 +10426,7 @@
       <c r="N41" s="52"/>
       <c r="R41" s="53"/>
     </row>
-    <row r="42" spans="1:18" s="49" customFormat="1" hidden="1">
+    <row r="42" spans="1:18" s="49" customFormat="1">
       <c r="A42" s="48">
         <v>43014</v>
       </c>
@@ -10464,7 +10457,7 @@
       <c r="N42" s="52"/>
       <c r="R42" s="53"/>
     </row>
-    <row r="43" spans="1:18" s="49" customFormat="1" hidden="1">
+    <row r="43" spans="1:18" s="49" customFormat="1">
       <c r="A43" s="48">
         <v>43014</v>
       </c>
@@ -10522,21 +10515,21 @@
         <v>907</v>
       </c>
       <c r="J44" s="49" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="K44" s="25" t="s">
         <v>908</v>
       </c>
       <c r="L44" s="25" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="M44" s="25" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="N44" s="52"/>
       <c r="R44" s="53"/>
     </row>
-    <row r="45" spans="1:18" s="49" customFormat="1" hidden="1">
+    <row r="45" spans="1:18" s="49" customFormat="1">
       <c r="A45" s="48">
         <v>43014</v>
       </c>
@@ -10567,7 +10560,7 @@
       <c r="N45" s="52"/>
       <c r="R45" s="53"/>
     </row>
-    <row r="46" spans="1:18" s="49" customFormat="1" hidden="1">
+    <row r="46" spans="1:18" s="49" customFormat="1">
       <c r="A46" s="48">
         <v>43014</v>
       </c>
@@ -10598,7 +10591,7 @@
       <c r="N46" s="52"/>
       <c r="R46" s="53"/>
     </row>
-    <row r="47" spans="1:18" s="49" customFormat="1" hidden="1">
+    <row r="47" spans="1:18" s="49" customFormat="1">
       <c r="A47" s="48">
         <v>43014</v>
       </c>
@@ -10622,7 +10615,7 @@
         <v>171</v>
       </c>
       <c r="H47" s="59" t="s">
-        <v>989</v>
+        <v>89</v>
       </c>
       <c r="K47" s="25"/>
       <c r="L47" s="25"/>
@@ -10656,21 +10649,21 @@
         <v>907</v>
       </c>
       <c r="J48" s="49" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="K48" s="25" t="s">
         <v>915</v>
       </c>
       <c r="L48" s="61" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="M48" s="65" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="N48" s="52"/>
       <c r="R48" s="53"/>
     </row>
-    <row r="49" spans="1:18" s="49" customFormat="1" hidden="1">
+    <row r="49" spans="1:18" s="49" customFormat="1">
       <c r="A49" s="48">
         <v>43014</v>
       </c>
@@ -10728,21 +10721,21 @@
         <v>907</v>
       </c>
       <c r="J50" s="49" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="K50" s="25" t="s">
         <v>915</v>
       </c>
       <c r="L50" s="61" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="M50" s="65" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="N50" s="52"/>
       <c r="R50" s="53"/>
     </row>
-    <row r="51" spans="1:18" s="49" customFormat="1" hidden="1">
+    <row r="51" spans="1:18" s="49" customFormat="1">
       <c r="A51" s="48">
         <v>43014</v>
       </c>
@@ -10773,7 +10766,7 @@
       <c r="N51" s="52"/>
       <c r="R51" s="53"/>
     </row>
-    <row r="52" spans="1:18" s="49" customFormat="1" hidden="1">
+    <row r="52" spans="1:18" s="49" customFormat="1">
       <c r="A52" s="48">
         <v>43014</v>
       </c>
@@ -10804,7 +10797,7 @@
       <c r="N52" s="52"/>
       <c r="R52" s="53"/>
     </row>
-    <row r="53" spans="1:18" s="49" customFormat="1" hidden="1">
+    <row r="53" spans="1:18" s="49" customFormat="1">
       <c r="A53" s="48">
         <v>43014</v>
       </c>
@@ -10835,7 +10828,7 @@
       <c r="N53" s="52"/>
       <c r="R53" s="53"/>
     </row>
-    <row r="54" spans="1:18" s="49" customFormat="1" hidden="1">
+    <row r="54" spans="1:18" s="49" customFormat="1">
       <c r="A54" s="48">
         <v>43014</v>
       </c>
@@ -10866,7 +10859,7 @@
       <c r="N54" s="52"/>
       <c r="R54" s="53"/>
     </row>
-    <row r="55" spans="1:18" s="49" customFormat="1" hidden="1">
+    <row r="55" spans="1:18" s="49" customFormat="1">
       <c r="A55" s="48">
         <v>43014</v>
       </c>
@@ -10893,14 +10886,14 @@
         <v>73</v>
       </c>
       <c r="I55" s="49" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="K55" s="25"/>
       <c r="L55" s="25"/>
       <c r="N55" s="52"/>
       <c r="R55" s="53"/>
     </row>
-    <row r="56" spans="1:18" s="49" customFormat="1" hidden="1">
+    <row r="56" spans="1:18" s="49" customFormat="1">
       <c r="A56" s="48">
         <v>43014</v>
       </c>
@@ -10931,7 +10924,7 @@
       <c r="N56" s="52"/>
       <c r="R56" s="53"/>
     </row>
-    <row r="57" spans="1:18" s="49" customFormat="1" hidden="1">
+    <row r="57" spans="1:18" s="49" customFormat="1">
       <c r="A57" s="48">
         <v>43014</v>
       </c>
@@ -10962,7 +10955,7 @@
       <c r="N57" s="52"/>
       <c r="R57" s="53"/>
     </row>
-    <row r="58" spans="1:18" s="49" customFormat="1" hidden="1">
+    <row r="58" spans="1:18" s="49" customFormat="1">
       <c r="A58" s="48">
         <v>43014</v>
       </c>
@@ -10993,7 +10986,7 @@
       <c r="N58" s="52"/>
       <c r="R58" s="53"/>
     </row>
-    <row r="59" spans="1:18" s="49" customFormat="1" hidden="1">
+    <row r="59" spans="1:18" s="49" customFormat="1">
       <c r="A59" s="48">
         <v>43014</v>
       </c>
@@ -11051,7 +11044,7 @@
         <v>907</v>
       </c>
       <c r="J60" s="49" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="K60" s="25" t="s">
         <v>908</v>
@@ -11060,12 +11053,12 @@
         <v>930</v>
       </c>
       <c r="M60" s="25" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="N60" s="52"/>
       <c r="R60" s="53"/>
     </row>
-    <row r="61" spans="1:18" s="49" customFormat="1" hidden="1">
+    <row r="61" spans="1:18" s="49" customFormat="1">
       <c r="A61" s="48">
         <v>43014</v>
       </c>
@@ -11096,7 +11089,7 @@
       <c r="N61" s="52"/>
       <c r="R61" s="53"/>
     </row>
-    <row r="62" spans="1:18" s="49" customFormat="1" hidden="1">
+    <row r="62" spans="1:18" s="49" customFormat="1">
       <c r="A62" s="48">
         <v>43014</v>
       </c>
@@ -11127,7 +11120,7 @@
       <c r="N62" s="52"/>
       <c r="R62" s="53"/>
     </row>
-    <row r="63" spans="1:18" s="49" customFormat="1" hidden="1">
+    <row r="63" spans="1:18" s="49" customFormat="1">
       <c r="A63" s="48">
         <v>43014</v>
       </c>
@@ -11158,7 +11151,7 @@
       <c r="N63" s="52"/>
       <c r="R63" s="53"/>
     </row>
-    <row r="64" spans="1:18" s="49" customFormat="1" hidden="1">
+    <row r="64" spans="1:18" s="49" customFormat="1">
       <c r="A64" s="48">
         <v>43014</v>
       </c>
@@ -11189,7 +11182,7 @@
       <c r="N64" s="52"/>
       <c r="R64" s="53"/>
     </row>
-    <row r="65" spans="1:19" s="49" customFormat="1" hidden="1">
+    <row r="65" spans="1:19" s="49" customFormat="1">
       <c r="A65" s="48">
         <v>43014</v>
       </c>
@@ -11220,7 +11213,7 @@
       <c r="N65" s="52"/>
       <c r="R65" s="53"/>
     </row>
-    <row r="66" spans="1:19" s="49" customFormat="1" hidden="1">
+    <row r="66" spans="1:19" s="49" customFormat="1">
       <c r="A66" s="48">
         <v>43014</v>
       </c>
@@ -11251,7 +11244,7 @@
       <c r="N66" s="52"/>
       <c r="R66" s="53"/>
     </row>
-    <row r="67" spans="1:19" s="49" customFormat="1" hidden="1">
+    <row r="67" spans="1:19" s="49" customFormat="1">
       <c r="A67" s="48">
         <v>43014</v>
       </c>
@@ -11309,21 +11302,21 @@
         <v>907</v>
       </c>
       <c r="J68" s="49" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="K68" s="25" t="s">
         <v>915</v>
       </c>
       <c r="L68" s="61" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="M68" s="65" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="N68" s="52"/>
       <c r="R68" s="53"/>
     </row>
-    <row r="69" spans="1:19" s="49" customFormat="1" hidden="1">
+    <row r="69" spans="1:19" s="49" customFormat="1">
       <c r="A69" s="48">
         <v>43014</v>
       </c>
@@ -11354,7 +11347,7 @@
       <c r="N69" s="52"/>
       <c r="R69" s="53"/>
     </row>
-    <row r="70" spans="1:19" s="49" customFormat="1" hidden="1">
+    <row r="70" spans="1:19" s="49" customFormat="1">
       <c r="A70" s="48">
         <v>43014</v>
       </c>
@@ -11385,7 +11378,7 @@
       <c r="N70" s="52"/>
       <c r="R70" s="53"/>
     </row>
-    <row r="71" spans="1:19" s="49" customFormat="1" hidden="1">
+    <row r="71" spans="1:19" s="49" customFormat="1">
       <c r="A71" s="48">
         <v>43014</v>
       </c>
@@ -11416,7 +11409,7 @@
       <c r="N71" s="52"/>
       <c r="R71" s="53"/>
     </row>
-    <row r="72" spans="1:19" s="49" customFormat="1" hidden="1">
+    <row r="72" spans="1:19" s="49" customFormat="1">
       <c r="A72" s="48">
         <v>43014</v>
       </c>
@@ -11447,7 +11440,7 @@
       <c r="N72" s="52"/>
       <c r="R72" s="53"/>
     </row>
-    <row r="73" spans="1:19" s="49" customFormat="1" hidden="1">
+    <row r="73" spans="1:19" s="49" customFormat="1">
       <c r="A73" s="48">
         <v>43014</v>
       </c>
@@ -11478,7 +11471,7 @@
       <c r="N73" s="52"/>
       <c r="R73" s="53"/>
     </row>
-    <row r="74" spans="1:19" s="49" customFormat="1" hidden="1">
+    <row r="74" spans="1:19" s="49" customFormat="1">
       <c r="A74" s="48">
         <v>43014</v>
       </c>
@@ -11509,7 +11502,7 @@
       <c r="N74" s="52"/>
       <c r="R74" s="53"/>
     </row>
-    <row r="75" spans="1:19" s="49" customFormat="1" hidden="1">
+    <row r="75" spans="1:19" s="49" customFormat="1">
       <c r="A75" s="48">
         <v>43014</v>
       </c>
@@ -11540,7 +11533,7 @@
       <c r="N75" s="52"/>
       <c r="R75" s="53"/>
     </row>
-    <row r="76" spans="1:19" s="49" customFormat="1" hidden="1">
+    <row r="76" spans="1:19" s="49" customFormat="1">
       <c r="A76" s="48">
         <v>43014</v>
       </c>
@@ -11571,7 +11564,7 @@
       <c r="N76" s="52"/>
       <c r="R76" s="53"/>
     </row>
-    <row r="77" spans="1:19" s="49" customFormat="1" hidden="1">
+    <row r="77" spans="1:19" s="49" customFormat="1">
       <c r="A77" s="48">
         <v>43014</v>
       </c>
@@ -11602,7 +11595,7 @@
       <c r="N77" s="52"/>
       <c r="R77" s="53"/>
     </row>
-    <row r="78" spans="1:19" s="49" customFormat="1" hidden="1">
+    <row r="78" spans="1:19" s="49" customFormat="1">
       <c r="A78" s="48">
         <v>43014</v>
       </c>
@@ -11633,7 +11626,7 @@
       <c r="N78" s="52"/>
       <c r="R78" s="53"/>
     </row>
-    <row r="79" spans="1:19" s="54" customFormat="1" hidden="1">
+    <row r="79" spans="1:19" s="54" customFormat="1">
       <c r="A79" s="48">
         <v>43014</v>
       </c>
@@ -11692,21 +11685,21 @@
         <v>907</v>
       </c>
       <c r="J80" s="49" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="K80" s="25" t="s">
         <v>914</v>
       </c>
       <c r="L80" s="25" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="M80" s="20" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="N80" s="52"/>
       <c r="R80" s="53"/>
     </row>
-    <row r="81" spans="1:18" s="49" customFormat="1" hidden="1">
+    <row r="81" spans="1:18" s="49" customFormat="1">
       <c r="A81" s="48">
         <v>43014</v>
       </c>
@@ -11737,7 +11730,7 @@
       <c r="N81" s="52"/>
       <c r="R81" s="53"/>
     </row>
-    <row r="82" spans="1:18" s="49" customFormat="1" hidden="1">
+    <row r="82" spans="1:18" s="49" customFormat="1">
       <c r="A82" s="48">
         <v>43014</v>
       </c>
@@ -11768,7 +11761,7 @@
       <c r="N82" s="52"/>
       <c r="R82" s="53"/>
     </row>
-    <row r="83" spans="1:18" s="49" customFormat="1" hidden="1">
+    <row r="83" spans="1:18" s="49" customFormat="1">
       <c r="A83" s="48">
         <v>43014</v>
       </c>
@@ -11799,7 +11792,7 @@
       <c r="N83" s="52"/>
       <c r="R83" s="53"/>
     </row>
-    <row r="84" spans="1:18" s="49" customFormat="1" hidden="1">
+    <row r="84" spans="1:18" s="49" customFormat="1">
       <c r="A84" s="48">
         <v>43014</v>
       </c>
@@ -11830,7 +11823,7 @@
       <c r="N84" s="52"/>
       <c r="R84" s="53"/>
     </row>
-    <row r="85" spans="1:18" s="49" customFormat="1" hidden="1">
+    <row r="85" spans="1:18" s="49" customFormat="1">
       <c r="A85" s="48">
         <v>43014</v>
       </c>
@@ -11861,7 +11854,7 @@
       <c r="N85" s="52"/>
       <c r="R85" s="53"/>
     </row>
-    <row r="86" spans="1:18" s="49" customFormat="1" hidden="1">
+    <row r="86" spans="1:18" s="49" customFormat="1">
       <c r="A86" s="48">
         <v>43014</v>
       </c>
@@ -11892,7 +11885,7 @@
       <c r="N86" s="52"/>
       <c r="R86" s="53"/>
     </row>
-    <row r="87" spans="1:18" s="49" customFormat="1" hidden="1">
+    <row r="87" spans="1:18" s="49" customFormat="1">
       <c r="A87" s="48">
         <v>43014</v>
       </c>
@@ -11923,7 +11916,7 @@
       <c r="N87" s="52"/>
       <c r="R87" s="53"/>
     </row>
-    <row r="88" spans="1:18" s="49" customFormat="1" hidden="1">
+    <row r="88" spans="1:18" s="49" customFormat="1">
       <c r="A88" s="48">
         <v>43014</v>
       </c>
@@ -11947,14 +11940,14 @@
         <v>13</v>
       </c>
       <c r="H88" s="49" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="K88" s="25"/>
       <c r="L88" s="25"/>
       <c r="N88" s="52"/>
       <c r="R88" s="53"/>
     </row>
-    <row r="89" spans="1:18" s="49" customFormat="1" hidden="1">
+    <row r="89" spans="1:18" s="49" customFormat="1">
       <c r="A89" s="48">
         <v>43014</v>
       </c>
@@ -12012,21 +12005,21 @@
         <v>907</v>
       </c>
       <c r="J90" s="49" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="K90" s="25" t="s">
         <v>909</v>
       </c>
       <c r="L90" s="25" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="M90" s="25" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="N90" s="52"/>
       <c r="R90" s="53"/>
     </row>
-    <row r="91" spans="1:18" s="49" customFormat="1" hidden="1">
+    <row r="91" spans="1:18" s="49" customFormat="1">
       <c r="A91" s="48">
         <v>43014</v>
       </c>
@@ -12084,7 +12077,7 @@
         <v>907</v>
       </c>
       <c r="J92" s="49" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="K92" s="25" t="s">
         <v>912</v>
@@ -12098,7 +12091,7 @@
       <c r="N92" s="52"/>
       <c r="R92" s="53"/>
     </row>
-    <row r="93" spans="1:18" s="49" customFormat="1" hidden="1">
+    <row r="93" spans="1:18" s="49" customFormat="1">
       <c r="A93" s="48">
         <v>43014</v>
       </c>
@@ -12129,7 +12122,7 @@
       <c r="N93" s="52"/>
       <c r="R93" s="53"/>
     </row>
-    <row r="94" spans="1:18" s="49" customFormat="1" hidden="1">
+    <row r="94" spans="1:18" s="49" customFormat="1">
       <c r="A94" s="48">
         <v>43014</v>
       </c>
@@ -12160,7 +12153,7 @@
       <c r="N94" s="52"/>
       <c r="R94" s="53"/>
     </row>
-    <row r="95" spans="1:18" s="49" customFormat="1" hidden="1">
+    <row r="95" spans="1:18" s="49" customFormat="1">
       <c r="A95" s="48">
         <v>43014</v>
       </c>
@@ -12191,7 +12184,7 @@
       <c r="N95" s="52"/>
       <c r="R95" s="53"/>
     </row>
-    <row r="96" spans="1:18" s="49" customFormat="1" hidden="1">
+    <row r="96" spans="1:18" s="49" customFormat="1">
       <c r="A96" s="48">
         <v>43014</v>
       </c>
@@ -12222,7 +12215,7 @@
       <c r="N96" s="52"/>
       <c r="R96" s="53"/>
     </row>
-    <row r="97" spans="1:18" s="49" customFormat="1" hidden="1">
+    <row r="97" spans="1:18" s="49" customFormat="1">
       <c r="A97" s="48">
         <v>43014</v>
       </c>
@@ -12253,7 +12246,7 @@
       <c r="N97" s="52"/>
       <c r="R97" s="53"/>
     </row>
-    <row r="98" spans="1:18" s="49" customFormat="1" hidden="1">
+    <row r="98" spans="1:18" s="49" customFormat="1">
       <c r="A98" s="48">
         <v>43014</v>
       </c>
@@ -12311,21 +12304,21 @@
         <v>907</v>
       </c>
       <c r="J99" s="24" t="s">
+        <v>986</v>
+      </c>
+      <c r="K99" s="25" t="s">
+        <v>996</v>
+      </c>
+      <c r="L99" s="25" t="s">
         <v>987</v>
       </c>
-      <c r="K99" s="25" t="s">
-        <v>998</v>
-      </c>
-      <c r="L99" s="25" t="s">
-        <v>988</v>
-      </c>
       <c r="M99" s="25" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="N99" s="52"/>
       <c r="R99" s="53"/>
     </row>
-    <row r="100" spans="1:18" s="49" customFormat="1" hidden="1">
+    <row r="100" spans="1:18" s="49" customFormat="1">
       <c r="A100" s="48">
         <v>43014</v>
       </c>
@@ -12356,7 +12349,7 @@
       <c r="N100" s="52"/>
       <c r="R100" s="53"/>
     </row>
-    <row r="101" spans="1:18" s="49" customFormat="1" hidden="1">
+    <row r="101" spans="1:18" s="49" customFormat="1">
       <c r="A101" s="48">
         <v>43014</v>
       </c>
@@ -12387,7 +12380,7 @@
       <c r="N101" s="52"/>
       <c r="R101" s="53"/>
     </row>
-    <row r="102" spans="1:18" s="49" customFormat="1" hidden="1">
+    <row r="102" spans="1:18" s="49" customFormat="1">
       <c r="A102" s="48">
         <v>43014</v>
       </c>
@@ -12418,7 +12411,7 @@
       <c r="N102" s="52"/>
       <c r="R102" s="53"/>
     </row>
-    <row r="103" spans="1:18" hidden="1">
+    <row r="103" spans="1:18">
       <c r="A103" s="21" t="s">
         <v>926</v>
       </c>
@@ -12444,7 +12437,7 @@
       <c r="K103" s="36"/>
       <c r="L103" s="35"/>
     </row>
-    <row r="104" spans="1:18" hidden="1">
+    <row r="104" spans="1:18">
       <c r="A104" s="21" t="s">
         <v>926</v>
       </c>
@@ -12515,7 +12508,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="106" spans="1:18" hidden="1">
+    <row r="106" spans="1:18">
       <c r="A106" s="21" t="s">
         <v>926</v>
       </c>
@@ -12587,7 +12580,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="108" spans="1:18" hidden="1">
+    <row r="108" spans="1:18">
       <c r="A108" s="21" t="s">
         <v>926</v>
       </c>
@@ -12618,7 +12611,7 @@
       <c r="K108" s="38"/>
       <c r="L108" s="38"/>
     </row>
-    <row r="109" spans="1:18" hidden="1">
+    <row r="109" spans="1:18">
       <c r="A109" s="21" t="s">
         <v>926</v>
       </c>
@@ -12649,7 +12642,7 @@
       <c r="K109" s="38"/>
       <c r="L109" s="38"/>
     </row>
-    <row r="110" spans="1:18" hidden="1">
+    <row r="110" spans="1:18">
       <c r="A110" s="21" t="s">
         <v>926</v>
       </c>
@@ -12680,7 +12673,7 @@
       <c r="K110" s="38"/>
       <c r="L110" s="38"/>
     </row>
-    <row r="111" spans="1:18" hidden="1">
+    <row r="111" spans="1:18">
       <c r="A111" s="21" t="s">
         <v>926</v>
       </c>
@@ -12711,7 +12704,7 @@
       <c r="K111" s="38"/>
       <c r="L111" s="38"/>
     </row>
-    <row r="112" spans="1:18" hidden="1">
+    <row r="112" spans="1:18">
       <c r="A112" s="21" t="s">
         <v>926</v>
       </c>
@@ -12742,7 +12735,7 @@
       <c r="K112" s="38"/>
       <c r="L112" s="38"/>
     </row>
-    <row r="113" spans="1:12" hidden="1">
+    <row r="113" spans="1:12">
       <c r="A113" s="21" t="s">
         <v>926</v>
       </c>
@@ -12773,7 +12766,7 @@
       <c r="K113" s="38"/>
       <c r="L113" s="38"/>
     </row>
-    <row r="114" spans="1:12" hidden="1">
+    <row r="114" spans="1:12">
       <c r="A114" s="21" t="s">
         <v>926</v>
       </c>
@@ -12804,7 +12797,7 @@
       <c r="K114" s="38"/>
       <c r="L114" s="38"/>
     </row>
-    <row r="115" spans="1:12" hidden="1">
+    <row r="115" spans="1:12">
       <c r="A115" s="21" t="s">
         <v>926</v>
       </c>
@@ -12836,7 +12829,7 @@
       <c r="J115" s="32"/>
       <c r="L115" s="38"/>
     </row>
-    <row r="116" spans="1:12" hidden="1">
+    <row r="116" spans="1:12">
       <c r="A116" s="21" t="s">
         <v>926</v>
       </c>
@@ -12866,7 +12859,7 @@
       <c r="J116" s="32"/>
       <c r="L116" s="38"/>
     </row>
-    <row r="117" spans="1:12" hidden="1">
+    <row r="117" spans="1:12">
       <c r="A117" s="21" t="s">
         <v>926</v>
       </c>
@@ -12898,7 +12891,7 @@
       <c r="J117" s="32"/>
       <c r="L117" s="38"/>
     </row>
-    <row r="118" spans="1:12" hidden="1">
+    <row r="118" spans="1:12">
       <c r="A118" s="21" t="s">
         <v>926</v>
       </c>
@@ -12930,7 +12923,7 @@
       <c r="J118" s="32"/>
       <c r="L118" s="38"/>
     </row>
-    <row r="119" spans="1:12" hidden="1">
+    <row r="119" spans="1:12">
       <c r="A119" s="21" t="s">
         <v>926</v>
       </c>
@@ -12960,7 +12953,7 @@
       <c r="J119" s="32"/>
       <c r="L119" s="38"/>
     </row>
-    <row r="120" spans="1:12" hidden="1">
+    <row r="120" spans="1:12">
       <c r="A120" s="21" t="s">
         <v>926</v>
       </c>
@@ -12992,7 +12985,7 @@
       <c r="J120" s="32"/>
       <c r="L120" s="38"/>
     </row>
-    <row r="121" spans="1:12" hidden="1">
+    <row r="121" spans="1:12">
       <c r="A121" s="21" t="s">
         <v>926</v>
       </c>
@@ -13024,7 +13017,7 @@
       <c r="J121" s="32"/>
       <c r="L121" s="38"/>
     </row>
-    <row r="122" spans="1:12" hidden="1">
+    <row r="122" spans="1:12">
       <c r="A122" s="21" t="s">
         <v>926</v>
       </c>
@@ -13054,7 +13047,7 @@
       <c r="J122" s="32"/>
       <c r="L122" s="38"/>
     </row>
-    <row r="123" spans="1:12" hidden="1">
+    <row r="123" spans="1:12">
       <c r="A123" s="21" t="s">
         <v>926</v>
       </c>
@@ -13084,7 +13077,7 @@
       <c r="J123" s="32"/>
       <c r="L123" s="38"/>
     </row>
-    <row r="124" spans="1:12" hidden="1">
+    <row r="124" spans="1:12">
       <c r="A124" s="21" t="s">
         <v>926</v>
       </c>
@@ -13114,7 +13107,7 @@
       <c r="J124" s="32"/>
       <c r="L124" s="38"/>
     </row>
-    <row r="125" spans="1:12" hidden="1">
+    <row r="125" spans="1:12">
       <c r="A125" s="21" t="s">
         <v>926</v>
       </c>
@@ -13146,7 +13139,7 @@
       <c r="J125" s="32"/>
       <c r="L125" s="38"/>
     </row>
-    <row r="126" spans="1:12" hidden="1">
+    <row r="126" spans="1:12">
       <c r="A126" s="21" t="s">
         <v>926</v>
       </c>
@@ -13177,7 +13170,7 @@
       <c r="K126" s="38"/>
       <c r="L126" s="38"/>
     </row>
-    <row r="127" spans="1:12" hidden="1">
+    <row r="127" spans="1:12">
       <c r="A127" s="21" t="s">
         <v>926</v>
       </c>
@@ -13208,7 +13201,7 @@
       <c r="K127" s="38"/>
       <c r="L127" s="38"/>
     </row>
-    <row r="128" spans="1:12" hidden="1">
+    <row r="128" spans="1:12">
       <c r="A128" s="21" t="s">
         <v>926</v>
       </c>
@@ -13239,7 +13232,7 @@
       <c r="K128" s="38"/>
       <c r="L128" s="38"/>
     </row>
-    <row r="129" spans="1:13" hidden="1">
+    <row r="129" spans="1:13">
       <c r="A129" s="21" t="s">
         <v>926</v>
       </c>
@@ -13270,7 +13263,7 @@
       <c r="K129" s="38"/>
       <c r="L129" s="38"/>
     </row>
-    <row r="130" spans="1:13" hidden="1">
+    <row r="130" spans="1:13">
       <c r="A130" s="21" t="s">
         <v>926</v>
       </c>
@@ -13301,7 +13294,7 @@
       <c r="K130" s="38"/>
       <c r="L130" s="38"/>
     </row>
-    <row r="131" spans="1:13" hidden="1">
+    <row r="131" spans="1:13">
       <c r="A131" s="21" t="s">
         <v>926</v>
       </c>
@@ -13332,7 +13325,7 @@
       <c r="K131" s="38"/>
       <c r="L131" s="38"/>
     </row>
-    <row r="132" spans="1:13" hidden="1">
+    <row r="132" spans="1:13">
       <c r="A132" s="21" t="s">
         <v>926</v>
       </c>
@@ -13363,7 +13356,7 @@
       <c r="K132" s="38"/>
       <c r="L132" s="38"/>
     </row>
-    <row r="133" spans="1:13" hidden="1">
+    <row r="133" spans="1:13">
       <c r="A133" s="21" t="s">
         <v>926</v>
       </c>
@@ -13436,7 +13429,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="135" spans="1:13" hidden="1">
+    <row r="135" spans="1:13">
       <c r="A135" s="21" t="s">
         <v>926</v>
       </c>
@@ -13468,7 +13461,7 @@
       <c r="J135" s="32"/>
       <c r="L135" s="38"/>
     </row>
-    <row r="136" spans="1:13" hidden="1">
+    <row r="136" spans="1:13">
       <c r="A136" s="21" t="s">
         <v>926</v>
       </c>
@@ -13583,7 +13576,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="139" spans="1:13" hidden="1">
+    <row r="139" spans="1:13">
       <c r="A139" s="21" t="s">
         <v>926</v>
       </c>
@@ -13614,7 +13607,7 @@
       <c r="K139" s="38"/>
       <c r="L139" s="38"/>
     </row>
-    <row r="140" spans="1:13" hidden="1">
+    <row r="140" spans="1:13">
       <c r="A140" s="21" t="s">
         <v>926</v>
       </c>
@@ -13646,7 +13639,7 @@
       <c r="J140" s="32"/>
       <c r="L140" s="38"/>
     </row>
-    <row r="141" spans="1:13" hidden="1">
+    <row r="141" spans="1:13">
       <c r="A141" s="21" t="s">
         <v>926</v>
       </c>
@@ -13676,7 +13669,7 @@
       <c r="J141" s="32"/>
       <c r="L141" s="38"/>
     </row>
-    <row r="142" spans="1:13" hidden="1">
+    <row r="142" spans="1:13">
       <c r="A142" s="21" t="s">
         <v>926</v>
       </c>
@@ -13706,7 +13699,7 @@
       <c r="J142" s="32"/>
       <c r="L142" s="38"/>
     </row>
-    <row r="143" spans="1:13" hidden="1">
+    <row r="143" spans="1:13">
       <c r="A143" s="21" t="s">
         <v>926</v>
       </c>
@@ -13736,7 +13729,7 @@
       <c r="J143" s="32"/>
       <c r="L143" s="38"/>
     </row>
-    <row r="144" spans="1:13" hidden="1">
+    <row r="144" spans="1:13">
       <c r="A144" s="21" t="s">
         <v>926</v>
       </c>
@@ -13768,7 +13761,7 @@
       <c r="J144" s="32"/>
       <c r="L144" s="38"/>
     </row>
-    <row r="145" spans="1:13" hidden="1">
+    <row r="145" spans="1:13">
       <c r="A145" s="21" t="s">
         <v>926</v>
       </c>
@@ -13841,7 +13834,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="147" spans="1:13" hidden="1">
+    <row r="147" spans="1:13">
       <c r="A147" s="21" t="s">
         <v>926</v>
       </c>
@@ -13872,7 +13865,7 @@
       <c r="K147" s="38"/>
       <c r="L147" s="38"/>
     </row>
-    <row r="148" spans="1:13" hidden="1">
+    <row r="148" spans="1:13">
       <c r="A148" s="21" t="s">
         <v>926</v>
       </c>
@@ -13904,7 +13897,7 @@
       <c r="J148" s="32"/>
       <c r="L148" s="38"/>
     </row>
-    <row r="149" spans="1:13" hidden="1">
+    <row r="149" spans="1:13">
       <c r="A149" s="21" t="s">
         <v>926</v>
       </c>
@@ -13935,7 +13928,7 @@
       <c r="K149" s="38"/>
       <c r="L149" s="38"/>
     </row>
-    <row r="150" spans="1:13" hidden="1">
+    <row r="150" spans="1:13">
       <c r="A150" s="21" t="s">
         <v>926</v>
       </c>
@@ -13966,7 +13959,7 @@
       <c r="K150" s="38"/>
       <c r="L150" s="38"/>
     </row>
-    <row r="151" spans="1:13" hidden="1">
+    <row r="151" spans="1:13">
       <c r="A151" s="21" t="s">
         <v>926</v>
       </c>
@@ -13997,7 +13990,7 @@
       <c r="K151" s="38"/>
       <c r="L151" s="38"/>
     </row>
-    <row r="152" spans="1:13" hidden="1">
+    <row r="152" spans="1:13">
       <c r="A152" s="21" t="s">
         <v>926</v>
       </c>
@@ -14028,7 +14021,7 @@
       <c r="K152" s="38"/>
       <c r="L152" s="38"/>
     </row>
-    <row r="153" spans="1:13" hidden="1">
+    <row r="153" spans="1:13">
       <c r="A153" s="21" t="s">
         <v>926</v>
       </c>
@@ -14059,7 +14052,7 @@
       <c r="K153" s="38"/>
       <c r="L153" s="38"/>
     </row>
-    <row r="154" spans="1:13" hidden="1">
+    <row r="154" spans="1:13">
       <c r="A154" s="21" t="s">
         <v>926</v>
       </c>
@@ -14090,7 +14083,7 @@
       <c r="K154" s="38"/>
       <c r="L154" s="38"/>
     </row>
-    <row r="155" spans="1:13" hidden="1">
+    <row r="155" spans="1:13">
       <c r="A155" s="21" t="s">
         <v>926</v>
       </c>
@@ -14154,16 +14147,16 @@
         <v>6135</v>
       </c>
       <c r="K156" s="63" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="L156" s="40" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="M156" s="66" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="157" spans="1:13" hidden="1">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13">
       <c r="A157" s="21" t="s">
         <v>926</v>
       </c>
@@ -14194,7 +14187,7 @@
       <c r="K157" s="40"/>
       <c r="L157" s="38"/>
     </row>
-    <row r="158" spans="1:13" hidden="1">
+    <row r="158" spans="1:13">
       <c r="A158" s="21" t="s">
         <v>926</v>
       </c>
@@ -14226,7 +14219,7 @@
       <c r="J158" s="39"/>
       <c r="L158" s="38"/>
     </row>
-    <row r="159" spans="1:13" hidden="1">
+    <row r="159" spans="1:13">
       <c r="A159" s="21" t="s">
         <v>926</v>
       </c>
@@ -14299,7 +14292,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="161" spans="1:13" hidden="1">
+    <row r="161" spans="1:13">
       <c r="A161" s="21" t="s">
         <v>926</v>
       </c>
@@ -14331,7 +14324,7 @@
       <c r="J161" s="39"/>
       <c r="L161" s="38"/>
     </row>
-    <row r="162" spans="1:13" hidden="1">
+    <row r="162" spans="1:13">
       <c r="A162" s="21" t="s">
         <v>926</v>
       </c>
@@ -14362,7 +14355,7 @@
       <c r="K162" s="40"/>
       <c r="L162" s="38"/>
     </row>
-    <row r="163" spans="1:13" hidden="1">
+    <row r="163" spans="1:13">
       <c r="A163" s="21" t="s">
         <v>926</v>
       </c>
@@ -14436,7 +14429,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="165" spans="1:13" hidden="1">
+    <row r="165" spans="1:13">
       <c r="A165" s="21" t="s">
         <v>926</v>
       </c>
@@ -14467,7 +14460,7 @@
       <c r="K165" s="40"/>
       <c r="L165" s="38"/>
     </row>
-    <row r="166" spans="1:13" hidden="1">
+    <row r="166" spans="1:13">
       <c r="A166" s="21" t="s">
         <v>926</v>
       </c>
@@ -14540,7 +14533,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="168" spans="1:13" hidden="1">
+    <row r="168" spans="1:13">
       <c r="A168" s="21" t="s">
         <v>926</v>
       </c>
@@ -14572,7 +14565,7 @@
       <c r="J168" s="39"/>
       <c r="L168" s="38"/>
     </row>
-    <row r="169" spans="1:13" hidden="1">
+    <row r="169" spans="1:13">
       <c r="A169" s="21" t="s">
         <v>926</v>
       </c>
@@ -14603,7 +14596,7 @@
       <c r="K169" s="40"/>
       <c r="L169" s="38"/>
     </row>
-    <row r="170" spans="1:13" hidden="1">
+    <row r="170" spans="1:13">
       <c r="A170" s="21" t="s">
         <v>926</v>
       </c>
@@ -14634,7 +14627,7 @@
       <c r="K170" s="40"/>
       <c r="L170" s="38"/>
     </row>
-    <row r="171" spans="1:13" hidden="1">
+    <row r="171" spans="1:13">
       <c r="A171" s="21" t="s">
         <v>926</v>
       </c>
@@ -14665,7 +14658,7 @@
       <c r="K171" s="40"/>
       <c r="L171" s="38"/>
     </row>
-    <row r="172" spans="1:13" hidden="1">
+    <row r="172" spans="1:13">
       <c r="A172" s="21" t="s">
         <v>926</v>
       </c>
@@ -14696,7 +14689,7 @@
       <c r="K172" s="40"/>
       <c r="L172" s="38"/>
     </row>
-    <row r="173" spans="1:13" hidden="1">
+    <row r="173" spans="1:13">
       <c r="A173" s="21" t="s">
         <v>926</v>
       </c>
@@ -14727,7 +14720,7 @@
       <c r="K173" s="40"/>
       <c r="L173" s="38"/>
     </row>
-    <row r="174" spans="1:13" hidden="1">
+    <row r="174" spans="1:13">
       <c r="A174" s="21" t="s">
         <v>926</v>
       </c>
@@ -14758,7 +14751,7 @@
       <c r="K174" s="40"/>
       <c r="L174" s="38"/>
     </row>
-    <row r="175" spans="1:13" hidden="1">
+    <row r="175" spans="1:13">
       <c r="A175" s="21" t="s">
         <v>926</v>
       </c>
@@ -14831,7 +14824,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="177" spans="1:13" hidden="1">
+    <row r="177" spans="1:13">
       <c r="A177" s="21" t="s">
         <v>926</v>
       </c>
@@ -14862,7 +14855,7 @@
       <c r="K177" s="40"/>
       <c r="L177" s="38"/>
     </row>
-    <row r="178" spans="1:13" hidden="1">
+    <row r="178" spans="1:13">
       <c r="A178" s="21" t="s">
         <v>926</v>
       </c>
@@ -14935,7 +14928,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="180" spans="1:13" hidden="1">
+    <row r="180" spans="1:13">
       <c r="A180" s="21" t="s">
         <v>926</v>
       </c>
@@ -14966,7 +14959,7 @@
       <c r="K180" s="40"/>
       <c r="L180" s="38"/>
     </row>
-    <row r="181" spans="1:13" hidden="1">
+    <row r="181" spans="1:13">
       <c r="A181" s="21" t="s">
         <v>926</v>
       </c>
@@ -15033,13 +15026,13 @@
         <v>909</v>
       </c>
       <c r="L182" s="38" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="M182" s="67" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="183" spans="1:13" hidden="1">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13">
       <c r="A183" s="21" t="s">
         <v>926</v>
       </c>
@@ -15070,7 +15063,7 @@
       <c r="K183" s="40"/>
       <c r="L183" s="38"/>
     </row>
-    <row r="184" spans="1:13" hidden="1">
+    <row r="184" spans="1:13">
       <c r="A184" s="21" t="s">
         <v>926</v>
       </c>
@@ -15102,7 +15095,7 @@
       <c r="J184" s="39"/>
       <c r="L184" s="38"/>
     </row>
-    <row r="185" spans="1:13" hidden="1">
+    <row r="185" spans="1:13">
       <c r="A185" s="21" t="s">
         <v>926</v>
       </c>
@@ -15134,7 +15127,7 @@
       <c r="J185" s="39"/>
       <c r="L185" s="38"/>
     </row>
-    <row r="186" spans="1:13" hidden="1">
+    <row r="186" spans="1:13">
       <c r="A186" s="21" t="s">
         <v>926</v>
       </c>
@@ -15166,7 +15159,7 @@
       <c r="J186" s="39"/>
       <c r="L186" s="38"/>
     </row>
-    <row r="187" spans="1:13" hidden="1">
+    <row r="187" spans="1:13">
       <c r="A187" s="21" t="s">
         <v>926</v>
       </c>
@@ -15196,7 +15189,7 @@
       <c r="J187" s="39"/>
       <c r="L187" s="38"/>
     </row>
-    <row r="188" spans="1:13" hidden="1">
+    <row r="188" spans="1:13">
       <c r="A188" s="21" t="s">
         <v>926</v>
       </c>
@@ -15311,7 +15304,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="191" spans="1:13" hidden="1">
+    <row r="191" spans="1:13">
       <c r="A191" s="21" t="s">
         <v>926</v>
       </c>
@@ -15384,7 +15377,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="193" spans="1:13" hidden="1">
+    <row r="193" spans="1:13">
       <c r="A193" s="21" t="s">
         <v>926</v>
       </c>
@@ -15451,13 +15444,13 @@
         <v>908</v>
       </c>
       <c r="L194" s="38" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="M194" s="38" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="195" spans="1:13" hidden="1">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13">
       <c r="A195" s="21" t="s">
         <v>926</v>
       </c>
@@ -15524,13 +15517,13 @@
         <v>908</v>
       </c>
       <c r="L196" s="38" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="M196" s="38" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="197" spans="1:13" hidden="1">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13">
       <c r="A197" s="21" t="s">
         <v>926</v>
       </c>
@@ -15561,7 +15554,7 @@
       <c r="K197" s="40"/>
       <c r="L197" s="38"/>
     </row>
-    <row r="198" spans="1:13" hidden="1">
+    <row r="198" spans="1:13">
       <c r="A198" s="21" t="s">
         <v>926</v>
       </c>
@@ -15592,7 +15585,7 @@
       <c r="K198" s="40"/>
       <c r="L198" s="38"/>
     </row>
-    <row r="199" spans="1:13" hidden="1">
+    <row r="199" spans="1:13">
       <c r="A199" s="21" t="s">
         <v>926</v>
       </c>
@@ -15623,7 +15616,7 @@
       <c r="K199" s="40"/>
       <c r="L199" s="38"/>
     </row>
-    <row r="200" spans="1:13" hidden="1">
+    <row r="200" spans="1:13">
       <c r="A200" s="21" t="s">
         <v>926</v>
       </c>
@@ -15654,7 +15647,7 @@
       <c r="K200" s="40"/>
       <c r="L200" s="38"/>
     </row>
-    <row r="201" spans="1:13" hidden="1">
+    <row r="201" spans="1:13">
       <c r="A201" s="21" t="s">
         <v>926</v>
       </c>
@@ -15685,7 +15678,7 @@
       <c r="K201" s="40"/>
       <c r="L201" s="38"/>
     </row>
-    <row r="202" spans="1:13" hidden="1">
+    <row r="202" spans="1:13">
       <c r="A202" s="21" t="s">
         <v>926</v>
       </c>
@@ -15716,7 +15709,7 @@
       <c r="K202" s="40"/>
       <c r="L202" s="38"/>
     </row>
-    <row r="203" spans="1:13" hidden="1">
+    <row r="203" spans="1:13">
       <c r="A203" s="21" t="s">
         <v>926</v>
       </c>
@@ -15747,7 +15740,7 @@
       <c r="K203" s="40"/>
       <c r="L203" s="38"/>
     </row>
-    <row r="204" spans="1:13" hidden="1">
+    <row r="204" spans="1:13">
       <c r="A204" s="21" t="s">
         <v>926</v>
       </c>
@@ -15820,7 +15813,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="206" spans="1:13" hidden="1">
+    <row r="206" spans="1:13">
       <c r="A206" s="21" t="s">
         <v>926</v>
       </c>
@@ -15851,7 +15844,7 @@
       <c r="K206" s="40"/>
       <c r="L206" s="38"/>
     </row>
-    <row r="207" spans="1:13" hidden="1">
+    <row r="207" spans="1:13">
       <c r="A207" s="21" t="s">
         <v>926</v>
       </c>
@@ -15924,7 +15917,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="209" spans="1:13" hidden="1">
+    <row r="209" spans="1:13">
       <c r="A209" s="21" t="s">
         <v>926</v>
       </c>
@@ -15956,7 +15949,7 @@
       <c r="J209" s="39"/>
       <c r="L209" s="38"/>
     </row>
-    <row r="210" spans="1:13" hidden="1">
+    <row r="210" spans="1:13">
       <c r="A210" s="21" t="s">
         <v>926</v>
       </c>
@@ -15988,7 +15981,7 @@
       <c r="J210" s="39"/>
       <c r="L210" s="38"/>
     </row>
-    <row r="211" spans="1:13" hidden="1">
+    <row r="211" spans="1:13">
       <c r="A211" s="21" t="s">
         <v>926</v>
       </c>
@@ -16018,7 +16011,7 @@
       <c r="J211" s="39"/>
       <c r="L211" s="38"/>
     </row>
-    <row r="212" spans="1:13" hidden="1">
+    <row r="212" spans="1:13">
       <c r="A212" s="21" t="s">
         <v>926</v>
       </c>
@@ -16048,7 +16041,7 @@
       <c r="J212" s="39"/>
       <c r="L212" s="38"/>
     </row>
-    <row r="213" spans="1:13" hidden="1">
+    <row r="213" spans="1:13">
       <c r="A213" s="21" t="s">
         <v>926</v>
       </c>
@@ -16080,7 +16073,7 @@
       <c r="J213" s="39"/>
       <c r="L213" s="38"/>
     </row>
-    <row r="214" spans="1:13" hidden="1">
+    <row r="214" spans="1:13">
       <c r="A214" s="21" t="s">
         <v>926</v>
       </c>
@@ -16112,7 +16105,7 @@
       <c r="J214" s="39"/>
       <c r="L214" s="38"/>
     </row>
-    <row r="215" spans="1:13" hidden="1">
+    <row r="215" spans="1:13">
       <c r="A215" s="21" t="s">
         <v>926</v>
       </c>
@@ -16142,7 +16135,7 @@
       <c r="J215" s="39"/>
       <c r="L215" s="38"/>
     </row>
-    <row r="216" spans="1:13" hidden="1">
+    <row r="216" spans="1:13">
       <c r="A216" s="21" t="s">
         <v>926</v>
       </c>
@@ -16173,7 +16166,7 @@
       <c r="K216" s="40"/>
       <c r="L216" s="38"/>
     </row>
-    <row r="217" spans="1:13" hidden="1">
+    <row r="217" spans="1:13">
       <c r="A217" s="21" t="s">
         <v>926</v>
       </c>
@@ -16239,7 +16232,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="219" spans="1:13" hidden="1">
+    <row r="219" spans="1:13">
       <c r="A219" s="21" t="s">
         <v>926</v>
       </c>
@@ -16349,7 +16342,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="222" spans="1:13" hidden="1">
+    <row r="222" spans="1:13">
       <c r="A222" s="21" t="s">
         <v>926</v>
       </c>
@@ -16381,7 +16374,7 @@
       <c r="J222" s="36"/>
       <c r="K222" s="36"/>
     </row>
-    <row r="223" spans="1:13" hidden="1">
+    <row r="223" spans="1:13">
       <c r="A223" s="21" t="s">
         <v>926</v>
       </c>
@@ -16445,13 +16438,13 @@
         <v>914</v>
       </c>
       <c r="L224" s="62" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="M224" s="20" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="225" spans="1:13" hidden="1">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="225" spans="1:13">
       <c r="A225" s="21" t="s">
         <v>926</v>
       </c>
@@ -16481,7 +16474,7 @@
       <c r="J225" s="36"/>
       <c r="K225" s="36"/>
     </row>
-    <row r="226" spans="1:13" hidden="1">
+    <row r="226" spans="1:13">
       <c r="A226" s="21" t="s">
         <v>926</v>
       </c>
@@ -16511,7 +16504,7 @@
       <c r="J226" s="36"/>
       <c r="K226" s="36"/>
     </row>
-    <row r="227" spans="1:13" hidden="1">
+    <row r="227" spans="1:13">
       <c r="A227" s="21" t="s">
         <v>926</v>
       </c>
@@ -16535,13 +16528,13 @@
         <v>36</v>
       </c>
       <c r="H227" s="32" t="s">
-        <v>960</v>
+        <v>906</v>
       </c>
       <c r="I227" s="32"/>
       <c r="J227" s="36"/>
       <c r="K227" s="36"/>
     </row>
-    <row r="228" spans="1:13" hidden="1">
+    <row r="228" spans="1:13">
       <c r="A228" s="21" t="s">
         <v>926</v>
       </c>
@@ -16611,7 +16604,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="230" spans="1:13" hidden="1">
+    <row r="230" spans="1:13">
       <c r="A230" s="21" t="s">
         <v>926</v>
       </c>
@@ -16681,7 +16674,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="232" spans="1:13" hidden="1">
+    <row r="232" spans="1:13">
       <c r="A232" s="21" t="s">
         <v>926</v>
       </c>
@@ -16711,7 +16704,7 @@
       <c r="J232" s="36"/>
       <c r="K232" s="36"/>
     </row>
-    <row r="233" spans="1:13" hidden="1">
+    <row r="233" spans="1:13">
       <c r="A233" s="21" t="s">
         <v>926</v>
       </c>
@@ -16743,7 +16736,7 @@
       <c r="J233" s="36"/>
       <c r="K233" s="36"/>
     </row>
-    <row r="234" spans="1:13" hidden="1">
+    <row r="234" spans="1:13">
       <c r="A234" s="21" t="s">
         <v>926</v>
       </c>
@@ -16813,7 +16806,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="236" spans="1:13" hidden="1">
+    <row r="236" spans="1:13">
       <c r="A236" s="21" t="s">
         <v>926</v>
       </c>
@@ -16840,12 +16833,12 @@
         <v>67</v>
       </c>
       <c r="I236" s="32" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="J236" s="36"/>
       <c r="K236" s="36"/>
     </row>
-    <row r="237" spans="1:13" hidden="1">
+    <row r="237" spans="1:13">
       <c r="A237" s="21" t="s">
         <v>926</v>
       </c>
@@ -16872,12 +16865,12 @@
         <v>79</v>
       </c>
       <c r="I237" s="32" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="J237" s="36"/>
       <c r="K237" s="36"/>
     </row>
-    <row r="238" spans="1:13" hidden="1">
+    <row r="238" spans="1:13">
       <c r="A238" s="21" t="s">
         <v>926</v>
       </c>
@@ -16935,19 +16928,19 @@
       </c>
       <c r="I239" s="32"/>
       <c r="J239" s="36" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="K239" s="36" t="s">
         <v>908</v>
       </c>
       <c r="L239" s="62" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="M239" s="62" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="240" spans="1:13" hidden="1">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="240" spans="1:13">
       <c r="A240" s="21" t="s">
         <v>926</v>
       </c>
@@ -16979,7 +16972,7 @@
       <c r="J240" s="36"/>
       <c r="K240" s="36"/>
     </row>
-    <row r="241" spans="1:13" hidden="1">
+    <row r="241" spans="1:13">
       <c r="A241" s="21" t="s">
         <v>926</v>
       </c>
@@ -17009,7 +17002,7 @@
       <c r="J241" s="36"/>
       <c r="K241" s="36"/>
     </row>
-    <row r="242" spans="1:13" hidden="1">
+    <row r="242" spans="1:13">
       <c r="A242" s="21" t="s">
         <v>926</v>
       </c>
@@ -17036,12 +17029,12 @@
         <v>67</v>
       </c>
       <c r="I242" s="32" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="J242" s="36"/>
       <c r="K242" s="36"/>
     </row>
-    <row r="243" spans="1:13" hidden="1">
+    <row r="243" spans="1:13">
       <c r="A243" s="21" t="s">
         <v>926</v>
       </c>
@@ -17099,19 +17092,19 @@
       </c>
       <c r="I244" s="32"/>
       <c r="J244" s="36" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="K244" s="36" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="L244" s="62" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="M244" s="62" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="245" spans="1:13" hidden="1">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="245" spans="1:13">
       <c r="A245" s="21" t="s">
         <v>926</v>
       </c>
@@ -17169,19 +17162,19 @@
       </c>
       <c r="I246" s="32"/>
       <c r="J246" s="36" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="K246" s="36" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="L246" s="62" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="M246" s="62" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="247" spans="1:13" hidden="1">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="247" spans="1:13">
       <c r="A247" s="21" t="s">
         <v>926</v>
       </c>
@@ -17211,7 +17204,7 @@
       <c r="J247" s="36"/>
       <c r="K247" s="36"/>
     </row>
-    <row r="248" spans="1:13" hidden="1">
+    <row r="248" spans="1:13">
       <c r="A248" s="21" t="s">
         <v>926</v>
       </c>
@@ -17238,12 +17231,12 @@
         <v>79</v>
       </c>
       <c r="I248" s="32" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="J248" s="36"/>
       <c r="K248" s="36"/>
     </row>
-    <row r="249" spans="1:13" hidden="1">
+    <row r="249" spans="1:13">
       <c r="A249" s="21" t="s">
         <v>926</v>
       </c>
@@ -17353,7 +17346,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="252" spans="1:13" hidden="1">
+    <row r="252" spans="1:13">
       <c r="A252" s="21" t="s">
         <v>926</v>
       </c>
@@ -17385,7 +17378,7 @@
       <c r="J252" s="36"/>
       <c r="K252" s="36"/>
     </row>
-    <row r="253" spans="1:13" hidden="1">
+    <row r="253" spans="1:13">
       <c r="A253" s="21" t="s">
         <v>926</v>
       </c>
@@ -17415,7 +17408,7 @@
       <c r="J253" s="36"/>
       <c r="K253" s="36"/>
     </row>
-    <row r="254" spans="1:13" hidden="1">
+    <row r="254" spans="1:13">
       <c r="A254" s="21" t="s">
         <v>926</v>
       </c>
@@ -17445,7 +17438,7 @@
       <c r="J254" s="36"/>
       <c r="K254" s="36"/>
     </row>
-    <row r="255" spans="1:13" hidden="1">
+    <row r="255" spans="1:13">
       <c r="A255" s="21" t="s">
         <v>926</v>
       </c>
@@ -17475,7 +17468,7 @@
       <c r="J255" s="36"/>
       <c r="K255" s="36"/>
     </row>
-    <row r="256" spans="1:13" hidden="1">
+    <row r="256" spans="1:13">
       <c r="A256" s="21" t="s">
         <v>926</v>
       </c>
@@ -17505,7 +17498,7 @@
       <c r="J256" s="36"/>
       <c r="K256" s="36"/>
     </row>
-    <row r="257" spans="1:13" hidden="1">
+    <row r="257" spans="1:13">
       <c r="A257" s="21" t="s">
         <v>926</v>
       </c>
@@ -17535,7 +17528,7 @@
       <c r="J257" s="36"/>
       <c r="K257" s="36"/>
     </row>
-    <row r="258" spans="1:13" hidden="1">
+    <row r="258" spans="1:13">
       <c r="A258" s="21" t="s">
         <v>926</v>
       </c>
@@ -17562,12 +17555,12 @@
         <v>67</v>
       </c>
       <c r="I258" s="32" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="J258" s="36"/>
       <c r="K258" s="36"/>
     </row>
-    <row r="259" spans="1:13" hidden="1">
+    <row r="259" spans="1:13">
       <c r="A259" s="21" t="s">
         <v>926</v>
       </c>
@@ -17597,7 +17590,7 @@
       <c r="J259" s="36"/>
       <c r="K259" s="36"/>
     </row>
-    <row r="260" spans="1:13" hidden="1">
+    <row r="260" spans="1:13">
       <c r="A260" s="21" t="s">
         <v>926</v>
       </c>
@@ -17624,12 +17617,12 @@
         <v>67</v>
       </c>
       <c r="I260" s="32" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="J260" s="36"/>
       <c r="K260" s="36"/>
     </row>
-    <row r="261" spans="1:13" hidden="1">
+    <row r="261" spans="1:13">
       <c r="A261" s="21" t="s">
         <v>926</v>
       </c>
@@ -17659,7 +17652,7 @@
       <c r="J261" s="36"/>
       <c r="K261" s="36"/>
     </row>
-    <row r="262" spans="1:13" hidden="1">
+    <row r="262" spans="1:13">
       <c r="A262" s="21" t="s">
         <v>926</v>
       </c>
@@ -17686,7 +17679,7 @@
         <v>67</v>
       </c>
       <c r="I262" s="32" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="J262" s="36"/>
       <c r="K262" s="36"/>
@@ -17719,19 +17712,19 @@
       </c>
       <c r="I263" s="32"/>
       <c r="J263" s="36" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="K263" s="36" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="L263" s="62" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="M263" s="62" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="264" spans="1:13" hidden="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="264" spans="1:13">
       <c r="A264" s="21" t="s">
         <v>926</v>
       </c>
@@ -17761,7 +17754,7 @@
       <c r="J264" s="36"/>
       <c r="K264" s="36"/>
     </row>
-    <row r="265" spans="1:13" hidden="1">
+    <row r="265" spans="1:13">
       <c r="A265" s="21" t="s">
         <v>926</v>
       </c>
@@ -17791,7 +17784,7 @@
       <c r="J265" s="36"/>
       <c r="K265" s="36"/>
     </row>
-    <row r="266" spans="1:13" hidden="1">
+    <row r="266" spans="1:13">
       <c r="A266" s="21" t="s">
         <v>926</v>
       </c>
@@ -17823,7 +17816,7 @@
       <c r="J266" s="36"/>
       <c r="K266" s="36"/>
     </row>
-    <row r="267" spans="1:13" hidden="1">
+    <row r="267" spans="1:13">
       <c r="A267" s="21" t="s">
         <v>926</v>
       </c>
@@ -17884,16 +17877,16 @@
         <v>1142</v>
       </c>
       <c r="K268" s="36" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="L268" s="62" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="M268" s="62" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="269" spans="1:13" hidden="1">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="269" spans="1:13">
       <c r="A269" s="21" t="s">
         <v>926</v>
       </c>
@@ -17923,7 +17916,7 @@
       <c r="J269" s="36"/>
       <c r="K269" s="36"/>
     </row>
-    <row r="270" spans="1:13" hidden="1">
+    <row r="270" spans="1:13">
       <c r="A270" s="21" t="s">
         <v>926</v>
       </c>
@@ -17950,7 +17943,7 @@
         <v>79</v>
       </c>
       <c r="I270" s="32" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="J270" s="36"/>
       <c r="K270" s="36"/>
@@ -17983,7 +17976,7 @@
       </c>
       <c r="I271" s="32"/>
       <c r="J271" s="36" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="K271" s="36" t="s">
         <v>919</v>
@@ -18063,19 +18056,19 @@
       </c>
       <c r="I273" s="32"/>
       <c r="J273" s="36" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="K273" s="36" t="s">
         <v>927</v>
       </c>
       <c r="L273" s="62" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="M273" s="20" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="274" spans="1:13" hidden="1">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="274" spans="1:13">
       <c r="A274" s="21" t="s">
         <v>926</v>
       </c>
@@ -18105,7 +18098,7 @@
       <c r="J274" s="36"/>
       <c r="K274" s="36"/>
     </row>
-    <row r="275" spans="1:13" hidden="1">
+    <row r="275" spans="1:13">
       <c r="A275" s="21" t="s">
         <v>926</v>
       </c>
@@ -18137,7 +18130,7 @@
       <c r="J275" s="36"/>
       <c r="K275" s="36"/>
     </row>
-    <row r="276" spans="1:13" hidden="1">
+    <row r="276" spans="1:13">
       <c r="A276" s="21" t="s">
         <v>926</v>
       </c>
@@ -18167,7 +18160,7 @@
       <c r="J276" s="36"/>
       <c r="K276" s="36"/>
     </row>
-    <row r="277" spans="1:13" hidden="1">
+    <row r="277" spans="1:13">
       <c r="A277" s="21" t="s">
         <v>926</v>
       </c>
@@ -18199,7 +18192,7 @@
       <c r="J277" s="36"/>
       <c r="K277" s="36"/>
     </row>
-    <row r="278" spans="1:13" hidden="1">
+    <row r="278" spans="1:13">
       <c r="A278" s="21" t="s">
         <v>926</v>
       </c>
@@ -18229,7 +18222,7 @@
       <c r="J278" s="36"/>
       <c r="K278" s="36"/>
     </row>
-    <row r="279" spans="1:13" hidden="1">
+    <row r="279" spans="1:13">
       <c r="A279" s="21" t="s">
         <v>926</v>
       </c>
@@ -18261,7 +18254,7 @@
       <c r="J279" s="36"/>
       <c r="K279" s="36"/>
     </row>
-    <row r="280" spans="1:13" hidden="1">
+    <row r="280" spans="1:13">
       <c r="A280" s="21" t="s">
         <v>926</v>
       </c>
@@ -18288,12 +18281,12 @@
         <v>79</v>
       </c>
       <c r="I280" s="32" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="J280" s="36"/>
       <c r="K280" s="36"/>
     </row>
-    <row r="281" spans="1:13" hidden="1">
+    <row r="281" spans="1:13">
       <c r="A281" s="21" t="s">
         <v>926</v>
       </c>
@@ -18363,7 +18356,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="283" spans="1:13" hidden="1">
+    <row r="283" spans="1:13">
       <c r="A283" s="21" t="s">
         <v>926</v>
       </c>
@@ -18421,19 +18414,19 @@
       </c>
       <c r="I284" s="32"/>
       <c r="J284" s="36" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="K284" s="36" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="L284" s="62" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="M284" s="62" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="285" spans="1:13" hidden="1">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="285" spans="1:13">
       <c r="A285" s="21" t="s">
         <v>926</v>
       </c>
@@ -18497,13 +18490,13 @@
         <v>914</v>
       </c>
       <c r="L286" s="62" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="M286" s="20" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="287" spans="1:13" hidden="1">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="287" spans="1:13">
       <c r="A287" s="21" t="s">
         <v>926</v>
       </c>
@@ -18535,7 +18528,7 @@
       <c r="J287" s="36"/>
       <c r="K287" s="36"/>
     </row>
-    <row r="288" spans="1:13" hidden="1">
+    <row r="288" spans="1:13">
       <c r="A288" s="21" t="s">
         <v>926</v>
       </c>
@@ -18565,7 +18558,7 @@
       <c r="J288" s="36"/>
       <c r="K288" s="36"/>
     </row>
-    <row r="289" spans="1:11" hidden="1">
+    <row r="289" spans="1:11">
       <c r="A289" s="21" t="s">
         <v>926</v>
       </c>
@@ -18595,7 +18588,7 @@
       <c r="J289" s="36"/>
       <c r="K289" s="36"/>
     </row>
-    <row r="290" spans="1:11" hidden="1">
+    <row r="290" spans="1:11">
       <c r="A290" s="21" t="s">
         <v>926</v>
       </c>
@@ -18625,7 +18618,7 @@
       <c r="J290" s="36"/>
       <c r="K290" s="36"/>
     </row>
-    <row r="291" spans="1:11" hidden="1">
+    <row r="291" spans="1:11">
       <c r="A291" s="21" t="s">
         <v>926</v>
       </c>
@@ -18652,12 +18645,12 @@
         <v>67</v>
       </c>
       <c r="I291" s="32" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="J291" s="36"/>
       <c r="K291" s="36"/>
     </row>
-    <row r="292" spans="1:11" hidden="1">
+    <row r="292" spans="1:11">
       <c r="A292" s="21" t="s">
         <v>926</v>
       </c>
@@ -18689,7 +18682,7 @@
       <c r="J292" s="36"/>
       <c r="K292" s="36"/>
     </row>
-    <row r="293" spans="1:11" hidden="1">
+    <row r="293" spans="1:11">
       <c r="A293" s="21" t="s">
         <v>926</v>
       </c>
@@ -18716,12 +18709,12 @@
         <v>67</v>
       </c>
       <c r="I293" s="32" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="J293" s="36"/>
       <c r="K293" s="36"/>
     </row>
-    <row r="294" spans="1:11" hidden="1">
+    <row r="294" spans="1:11">
       <c r="A294" s="21" t="s">
         <v>926</v>
       </c>
@@ -18751,7 +18744,7 @@
       <c r="J294" s="36"/>
       <c r="K294" s="36"/>
     </row>
-    <row r="295" spans="1:11" hidden="1">
+    <row r="295" spans="1:11">
       <c r="A295" s="21" t="s">
         <v>926</v>
       </c>
@@ -18781,7 +18774,7 @@
       <c r="J295" s="36"/>
       <c r="K295" s="36"/>
     </row>
-    <row r="296" spans="1:11" hidden="1">
+    <row r="296" spans="1:11">
       <c r="A296" s="21" t="s">
         <v>926</v>
       </c>
@@ -18811,7 +18804,7 @@
       <c r="J296" s="36"/>
       <c r="K296" s="36"/>
     </row>
-    <row r="297" spans="1:11" hidden="1">
+    <row r="297" spans="1:11">
       <c r="A297" s="21" t="s">
         <v>926</v>
       </c>
@@ -18841,7 +18834,7 @@
       <c r="J297" s="36"/>
       <c r="K297" s="36"/>
     </row>
-    <row r="298" spans="1:11" hidden="1">
+    <row r="298" spans="1:11">
       <c r="A298" s="21" t="s">
         <v>926</v>
       </c>
@@ -18871,7 +18864,7 @@
       <c r="J298" s="36"/>
       <c r="K298" s="36"/>
     </row>
-    <row r="299" spans="1:11" hidden="1">
+    <row r="299" spans="1:11">
       <c r="A299" s="21" t="s">
         <v>926</v>
       </c>
@@ -18903,7 +18896,7 @@
       <c r="J299" s="36"/>
       <c r="K299" s="36"/>
     </row>
-    <row r="300" spans="1:11" hidden="1">
+    <row r="300" spans="1:11">
       <c r="A300" s="21" t="s">
         <v>926</v>
       </c>
@@ -18933,7 +18926,7 @@
       <c r="J300" s="36"/>
       <c r="K300" s="36"/>
     </row>
-    <row r="301" spans="1:11" hidden="1">
+    <row r="301" spans="1:11">
       <c r="A301" s="21" t="s">
         <v>926</v>
       </c>
@@ -18963,7 +18956,7 @@
       <c r="J301" s="36"/>
       <c r="K301" s="36"/>
     </row>
-    <row r="302" spans="1:11" hidden="1">
+    <row r="302" spans="1:11">
       <c r="A302" s="21" t="s">
         <v>926</v>
       </c>
@@ -18995,7 +18988,7 @@
       <c r="J302" s="36"/>
       <c r="K302" s="36"/>
     </row>
-    <row r="303" spans="1:11" hidden="1">
+    <row r="303" spans="1:11">
       <c r="A303" s="21" t="s">
         <v>926</v>
       </c>
@@ -19025,7 +19018,7 @@
       <c r="J303" s="36"/>
       <c r="K303" s="36"/>
     </row>
-    <row r="304" spans="1:11" hidden="1">
+    <row r="304" spans="1:11">
       <c r="A304" s="21" t="s">
         <v>926</v>
       </c>
@@ -19055,7 +19048,7 @@
       <c r="J304" s="36"/>
       <c r="K304" s="36"/>
     </row>
-    <row r="305" spans="1:13" hidden="1">
+    <row r="305" spans="1:13">
       <c r="A305" s="21" t="s">
         <v>926</v>
       </c>
@@ -19085,7 +19078,7 @@
       <c r="J305" s="36"/>
       <c r="K305" s="36"/>
     </row>
-    <row r="306" spans="1:13" hidden="1">
+    <row r="306" spans="1:13">
       <c r="A306" s="21" t="s">
         <v>926</v>
       </c>
@@ -19115,7 +19108,7 @@
       <c r="J306" s="36"/>
       <c r="K306" s="36"/>
     </row>
-    <row r="307" spans="1:13" hidden="1">
+    <row r="307" spans="1:13">
       <c r="A307" s="21" t="s">
         <v>926</v>
       </c>
@@ -19145,7 +19138,7 @@
       <c r="J307" s="36"/>
       <c r="K307" s="36"/>
     </row>
-    <row r="308" spans="1:13" hidden="1">
+    <row r="308" spans="1:13">
       <c r="A308" s="21" t="s">
         <v>926</v>
       </c>
@@ -19172,12 +19165,12 @@
         <v>79</v>
       </c>
       <c r="I308" s="32" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="J308" s="36"/>
       <c r="K308" s="36"/>
     </row>
-    <row r="309" spans="1:13" hidden="1">
+    <row r="309" spans="1:13">
       <c r="A309" s="21" t="s">
         <v>926</v>
       </c>
@@ -19247,7 +19240,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="311" spans="1:13" hidden="1">
+    <row r="311" spans="1:13">
       <c r="A311" s="21" t="s">
         <v>926</v>
       </c>
@@ -19277,7 +19270,7 @@
       <c r="J311" s="36"/>
       <c r="K311" s="36"/>
     </row>
-    <row r="312" spans="1:13" hidden="1">
+    <row r="312" spans="1:13">
       <c r="A312" s="21" t="s">
         <v>926</v>
       </c>
@@ -19304,12 +19297,12 @@
         <v>67</v>
       </c>
       <c r="I312" s="32" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="J312" s="36"/>
       <c r="K312" s="36"/>
     </row>
-    <row r="313" spans="1:13" hidden="1">
+    <row r="313" spans="1:13">
       <c r="A313" s="21" t="s">
         <v>926</v>
       </c>
@@ -19339,7 +19332,7 @@
       <c r="J313" s="36"/>
       <c r="K313" s="36"/>
     </row>
-    <row r="314" spans="1:13" hidden="1">
+    <row r="314" spans="1:13">
       <c r="A314" s="21" t="s">
         <v>926</v>
       </c>
@@ -19366,12 +19359,12 @@
         <v>79</v>
       </c>
       <c r="I314" s="32" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="J314" s="36"/>
       <c r="K314" s="36"/>
     </row>
-    <row r="315" spans="1:13" hidden="1">
+    <row r="315" spans="1:13">
       <c r="A315" s="21" t="s">
         <v>926</v>
       </c>
@@ -19401,7 +19394,7 @@
       <c r="J315" s="36"/>
       <c r="K315" s="36"/>
     </row>
-    <row r="316" spans="1:13" hidden="1">
+    <row r="316" spans="1:13">
       <c r="A316" s="21" t="s">
         <v>926</v>
       </c>
@@ -19431,7 +19424,7 @@
       <c r="J316" s="38"/>
       <c r="K316" s="38"/>
     </row>
-    <row r="317" spans="1:13" hidden="1">
+    <row r="317" spans="1:13">
       <c r="A317" s="21" t="s">
         <v>926</v>
       </c>
@@ -19463,7 +19456,7 @@
       <c r="J317" s="36"/>
       <c r="K317" s="36"/>
     </row>
-    <row r="318" spans="1:13" hidden="1">
+    <row r="318" spans="1:13">
       <c r="A318" s="21" t="s">
         <v>926</v>
       </c>
@@ -19493,7 +19486,7 @@
       <c r="J318" s="36"/>
       <c r="K318" s="36"/>
     </row>
-    <row r="319" spans="1:13" hidden="1">
+    <row r="319" spans="1:13">
       <c r="A319" s="21" t="s">
         <v>926</v>
       </c>
@@ -19551,19 +19544,19 @@
       </c>
       <c r="I320" s="32"/>
       <c r="J320" s="36" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="K320" s="36" t="s">
         <v>911</v>
       </c>
       <c r="L320" s="62" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="M320" s="62" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="321" spans="1:13" hidden="1">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="321" spans="1:13">
       <c r="A321" s="21" t="s">
         <v>926</v>
       </c>
@@ -19627,13 +19620,13 @@
         <v>927</v>
       </c>
       <c r="L322" s="62" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="M322" s="20" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="323" spans="1:13" hidden="1">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="323" spans="1:13">
       <c r="A323" s="21" t="s">
         <v>926</v>
       </c>
@@ -19660,12 +19653,12 @@
         <v>79</v>
       </c>
       <c r="I323" s="32" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="J323" s="36"/>
       <c r="K323" s="36"/>
     </row>
-    <row r="324" spans="1:13" hidden="1">
+    <row r="324" spans="1:13">
       <c r="A324" s="21" t="s">
         <v>926</v>
       </c>
@@ -19726,16 +19719,16 @@
         <v>1158</v>
       </c>
       <c r="K325" s="36" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="L325" s="62" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="M325" s="62" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="326" spans="1:13" hidden="1">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="326" spans="1:13">
       <c r="A326" s="21" t="s">
         <v>926</v>
       </c>
@@ -19765,7 +19758,7 @@
       <c r="J326" s="36"/>
       <c r="K326" s="36"/>
     </row>
-    <row r="327" spans="1:13" hidden="1">
+    <row r="327" spans="1:13">
       <c r="A327" s="21" t="s">
         <v>926</v>
       </c>
@@ -19790,7 +19783,7 @@
       <c r="J327" s="36"/>
       <c r="K327" s="36"/>
     </row>
-    <row r="328" spans="1:13" hidden="1">
+    <row r="328" spans="1:13">
       <c r="A328" s="21" t="s">
         <v>926</v>
       </c>
@@ -19821,7 +19814,7 @@
       <c r="K328" s="36"/>
       <c r="L328" s="36"/>
     </row>
-    <row r="329" spans="1:13" hidden="1">
+    <row r="329" spans="1:13">
       <c r="A329" s="21" t="s">
         <v>926</v>
       </c>
@@ -19854,7 +19847,7 @@
       <c r="K329" s="34"/>
       <c r="L329" s="36"/>
     </row>
-    <row r="330" spans="1:13" hidden="1">
+    <row r="330" spans="1:13">
       <c r="A330" s="21" t="s">
         <v>926</v>
       </c>
@@ -19919,13 +19912,13 @@
         <v>915</v>
       </c>
       <c r="L331" s="36" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="M331" s="66" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="332" spans="1:13" hidden="1">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="332" spans="1:13">
       <c r="A332" s="21" t="s">
         <v>926</v>
       </c>
@@ -19958,7 +19951,7 @@
       <c r="K332" s="36"/>
       <c r="L332" s="36"/>
     </row>
-    <row r="333" spans="1:13" hidden="1">
+    <row r="333" spans="1:13">
       <c r="A333" s="21" t="s">
         <v>926</v>
       </c>
@@ -19989,7 +19982,7 @@
       <c r="K333" s="34"/>
       <c r="L333" s="36"/>
     </row>
-    <row r="334" spans="1:13" hidden="1">
+    <row r="334" spans="1:13">
       <c r="A334" s="21" t="s">
         <v>926</v>
       </c>
@@ -20020,7 +20013,7 @@
       <c r="K334" s="36"/>
       <c r="L334" s="36"/>
     </row>
-    <row r="335" spans="1:13" hidden="1">
+    <row r="335" spans="1:13">
       <c r="A335" s="21" t="s">
         <v>926</v>
       </c>
@@ -20047,12 +20040,12 @@
         <v>79</v>
       </c>
       <c r="I335" s="36" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="J335" s="34"/>
       <c r="K335" s="34"/>
     </row>
-    <row r="336" spans="1:13" hidden="1">
+    <row r="336" spans="1:13">
       <c r="A336" s="21" t="s">
         <v>926</v>
       </c>
@@ -20119,13 +20112,13 @@
         <v>922</v>
       </c>
       <c r="L337" s="36" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="M337" s="36" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="338" spans="1:13" hidden="1">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="338" spans="1:13">
       <c r="A338" s="21" t="s">
         <v>926</v>
       </c>
@@ -20158,7 +20151,7 @@
       <c r="K338" s="36"/>
       <c r="L338" s="36"/>
     </row>
-    <row r="339" spans="1:13" hidden="1">
+    <row r="339" spans="1:13">
       <c r="A339" s="21" t="s">
         <v>926</v>
       </c>
@@ -20189,7 +20182,7 @@
       <c r="K339" s="34"/>
       <c r="L339" s="36"/>
     </row>
-    <row r="340" spans="1:13" hidden="1">
+    <row r="340" spans="1:13">
       <c r="A340" s="21" t="s">
         <v>926</v>
       </c>
@@ -20222,7 +20215,7 @@
       <c r="K340" s="36"/>
       <c r="L340" s="36"/>
     </row>
-    <row r="341" spans="1:13" hidden="1">
+    <row r="341" spans="1:13">
       <c r="A341" s="21" t="s">
         <v>926</v>
       </c>
@@ -20253,7 +20246,7 @@
       <c r="K341" s="34"/>
       <c r="L341" s="36"/>
     </row>
-    <row r="342" spans="1:13" hidden="1">
+    <row r="342" spans="1:13">
       <c r="A342" s="21" t="s">
         <v>926</v>
       </c>
@@ -20324,7 +20317,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="344" spans="1:13" hidden="1">
+    <row r="344" spans="1:13">
       <c r="A344" s="21" t="s">
         <v>926</v>
       </c>
@@ -20351,14 +20344,14 @@
         <v>79</v>
       </c>
       <c r="I344" s="36" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="J344" s="36">
         <v>16</v>
       </c>
       <c r="K344" s="36"/>
     </row>
-    <row r="345" spans="1:13" hidden="1">
+    <row r="345" spans="1:13">
       <c r="A345" s="21" t="s">
         <v>926</v>
       </c>
@@ -20389,7 +20382,7 @@
       <c r="K345" s="36"/>
       <c r="L345" s="36"/>
     </row>
-    <row r="346" spans="1:13" hidden="1">
+    <row r="346" spans="1:13">
       <c r="A346" s="21" t="s">
         <v>926</v>
       </c>
@@ -20422,7 +20415,7 @@
       <c r="K346" s="36"/>
       <c r="L346" s="36"/>
     </row>
-    <row r="347" spans="1:13" hidden="1">
+    <row r="347" spans="1:13">
       <c r="A347" s="21" t="s">
         <v>926</v>
       </c>
@@ -20493,7 +20486,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="349" spans="1:13" hidden="1">
+    <row r="349" spans="1:13">
       <c r="A349" s="21" t="s">
         <v>926</v>
       </c>
@@ -20524,7 +20517,7 @@
       <c r="K349" s="36"/>
       <c r="L349" s="36"/>
     </row>
-    <row r="350" spans="1:13" hidden="1">
+    <row r="350" spans="1:13">
       <c r="A350" s="21" t="s">
         <v>926</v>
       </c>
@@ -20595,7 +20588,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="352" spans="1:13" hidden="1">
+    <row r="352" spans="1:13">
       <c r="A352" s="21" t="s">
         <v>926</v>
       </c>
@@ -20622,14 +20615,14 @@
         <v>79</v>
       </c>
       <c r="I352" s="36" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="J352" s="36">
         <v>20</v>
       </c>
       <c r="K352" s="36"/>
     </row>
-    <row r="353" spans="1:13" hidden="1">
+    <row r="353" spans="1:13">
       <c r="A353" s="21" t="s">
         <v>926</v>
       </c>
@@ -20700,7 +20693,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="355" spans="1:13" hidden="1">
+    <row r="355" spans="1:13">
       <c r="A355" s="21" t="s">
         <v>926</v>
       </c>
@@ -20731,7 +20724,7 @@
       <c r="K355" s="36"/>
       <c r="L355" s="36"/>
     </row>
-    <row r="356" spans="1:13" hidden="1">
+    <row r="356" spans="1:13">
       <c r="A356" s="21" t="s">
         <v>926</v>
       </c>
@@ -20762,7 +20755,7 @@
       <c r="K356" s="36"/>
       <c r="L356" s="36"/>
     </row>
-    <row r="357" spans="1:13" hidden="1">
+    <row r="357" spans="1:13">
       <c r="A357" s="21" t="s">
         <v>926</v>
       </c>
@@ -20827,13 +20820,13 @@
         <v>913</v>
       </c>
       <c r="L358" s="36" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="M358" s="36" t="s">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="359" spans="1:13" hidden="1">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="359" spans="1:13">
       <c r="A359" s="21" t="s">
         <v>926</v>
       </c>
@@ -20904,7 +20897,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="361" spans="1:13" hidden="1">
+    <row r="361" spans="1:13">
       <c r="A361" s="21" t="s">
         <v>926</v>
       </c>
@@ -20935,7 +20928,7 @@
       <c r="K361" s="34"/>
       <c r="L361" s="36"/>
     </row>
-    <row r="362" spans="1:13" hidden="1">
+    <row r="362" spans="1:13">
       <c r="A362" s="21" t="s">
         <v>926</v>
       </c>
@@ -20966,7 +20959,7 @@
       <c r="K362" s="34"/>
       <c r="L362" s="36"/>
     </row>
-    <row r="363" spans="1:13" hidden="1">
+    <row r="363" spans="1:13">
       <c r="A363" s="21" t="s">
         <v>926</v>
       </c>
@@ -20997,7 +20990,7 @@
       <c r="K363" s="34"/>
       <c r="L363" s="36"/>
     </row>
-    <row r="364" spans="1:13" hidden="1">
+    <row r="364" spans="1:13">
       <c r="A364" s="21" t="s">
         <v>926</v>
       </c>
@@ -21030,7 +21023,7 @@
       <c r="K364" s="34"/>
       <c r="L364" s="36"/>
     </row>
-    <row r="365" spans="1:13" hidden="1">
+    <row r="365" spans="1:13">
       <c r="A365" s="21" t="s">
         <v>926</v>
       </c>
@@ -21095,13 +21088,13 @@
         <v>915</v>
       </c>
       <c r="L366" s="36" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="M366" s="67" t="s">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="367" spans="1:13" hidden="1">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="367" spans="1:13">
       <c r="A367" s="21" t="s">
         <v>926</v>
       </c>
@@ -21206,13 +21199,13 @@
         <v>915</v>
       </c>
       <c r="L369" s="36" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="M369" s="65" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="370" spans="1:13" hidden="1">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="370" spans="1:13">
       <c r="A370" s="21" t="s">
         <v>926</v>
       </c>
@@ -21277,13 +21270,13 @@
         <v>914</v>
       </c>
       <c r="L371" s="36" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="M371" s="20" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="372" spans="1:13" hidden="1">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="372" spans="1:13">
       <c r="A372" s="21" t="s">
         <v>926</v>
       </c>
@@ -21314,7 +21307,7 @@
       <c r="K372" s="36"/>
       <c r="L372" s="36"/>
     </row>
-    <row r="373" spans="1:13" hidden="1">
+    <row r="373" spans="1:13">
       <c r="A373" s="21" t="s">
         <v>926</v>
       </c>
@@ -21345,7 +21338,7 @@
       <c r="K373" s="34"/>
       <c r="L373" s="36"/>
     </row>
-    <row r="374" spans="1:13" hidden="1">
+    <row r="374" spans="1:13">
       <c r="A374" s="21" t="s">
         <v>926</v>
       </c>
@@ -21376,7 +21369,7 @@
       <c r="K374" s="34"/>
       <c r="L374" s="36"/>
     </row>
-    <row r="375" spans="1:13" hidden="1">
+    <row r="375" spans="1:13">
       <c r="A375" s="21" t="s">
         <v>926</v>
       </c>
@@ -21409,7 +21402,7 @@
       <c r="K375" s="36"/>
       <c r="L375" s="36"/>
     </row>
-    <row r="376" spans="1:13" hidden="1">
+    <row r="376" spans="1:13">
       <c r="A376" s="21" t="s">
         <v>926</v>
       </c>
@@ -21440,7 +21433,7 @@
       <c r="K376" s="36"/>
       <c r="L376" s="36"/>
     </row>
-    <row r="377" spans="1:13" hidden="1">
+    <row r="377" spans="1:13">
       <c r="A377" s="21" t="s">
         <v>926</v>
       </c>
@@ -21473,7 +21466,7 @@
       <c r="K377" s="36"/>
       <c r="L377" s="36"/>
     </row>
-    <row r="378" spans="1:13" hidden="1">
+    <row r="378" spans="1:13">
       <c r="A378" s="21" t="s">
         <v>926</v>
       </c>
@@ -21506,7 +21499,7 @@
       <c r="K378" s="36"/>
       <c r="L378" s="36"/>
     </row>
-    <row r="379" spans="1:13" hidden="1">
+    <row r="379" spans="1:13">
       <c r="A379" s="21" t="s">
         <v>926</v>
       </c>
@@ -21539,7 +21532,7 @@
       <c r="K379" s="36"/>
       <c r="L379" s="36"/>
     </row>
-    <row r="380" spans="1:13" hidden="1">
+    <row r="380" spans="1:13">
       <c r="A380" s="21" t="s">
         <v>926</v>
       </c>
@@ -21570,7 +21563,7 @@
       <c r="K380" s="36"/>
       <c r="L380" s="36"/>
     </row>
-    <row r="381" spans="1:13" hidden="1">
+    <row r="381" spans="1:13">
       <c r="A381" s="21" t="s">
         <v>926</v>
       </c>
@@ -21596,20 +21589,14 @@
       <c r="K381" s="36"/>
       <c r="L381" s="36"/>
     </row>
-    <row r="382" spans="1:13" hidden="1">
+    <row r="382" spans="1:13">
       <c r="G382" s="64">
         <f>SUM(G2:G380)</f>
         <v>10000</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T382" xr:uid="{9819A132-3437-4B12-9230-DA53DEB592FE}">
-    <filterColumn colId="7">
-      <filters>
-        <filter val="HC"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:T382" xr:uid="{9819A132-3437-4B12-9230-DA53DEB592FE}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
